--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_23_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1107132.7929311</v>
+        <v>1102621.596313545</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>30172882.68401885</v>
+        <v>30172882.68401884</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7380604.917431151</v>
+        <v>7380604.917431152</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4476011.398054705</v>
+        <v>4476011.398054704</v>
       </c>
     </row>
     <row r="11">
@@ -1372,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>377.9852184339061</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>46.41999270657191</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>58.49486008622742</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>147.7881207550811</v>
       </c>
       <c r="H13" t="n">
         <v>134.5125973793844</v>
       </c>
       <c r="I13" t="n">
-        <v>55.53741626608075</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.135521820955</v>
@@ -1587,13 +1587,13 @@
         <v>277.3344708341617</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>224.0793406271554</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H14" t="n">
         <v>274.7425724320338</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U14" t="n">
         <v>255.6139801279633</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
-        <v>407.6027988439302</v>
+        <v>58.8287472102965</v>
       </c>
       <c r="Y14" t="n">
-        <v>335.3189865391662</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>164.546123788675</v>
+        <v>150.709866373918</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>153.055145824462</v>
       </c>
       <c r="T16" t="n">
-        <v>146.413721277091</v>
+        <v>237.135521820955</v>
       </c>
       <c r="U16" t="n">
         <v>277.3344708341617</v>
@@ -1830,7 +1830,7 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X16" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>224.0793406271554</v>
@@ -1843,13 +1843,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>292.9140413274237</v>
       </c>
       <c r="C17" t="n">
-        <v>143.5492881431897</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>274.7425724320338</v>
@@ -1894,16 +1894,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>58.49486008622743</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
         <v>392.4274362026566</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523151</v>
       </c>
       <c r="T18" t="n">
         <v>136.2185294778021</v>
@@ -2004,25 +2004,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>122.509738759035</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39420885010224</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.135521820955</v>
@@ -2086,7 +2086,7 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>210.6824538657306</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>58.49486008622743</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.0178828866768</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>26.22837427324579</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>101.3516698540108</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>6.890442023638975</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>153.055145824462</v>
       </c>
       <c r="T22" t="n">
-        <v>237.135521820955</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>277.3344708341617</v>
@@ -2307,7 +2307,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y22" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>278.5829091472782</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2332,10 +2332,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>141.81924235906</v>
       </c>
       <c r="H23" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>255.6139801279633</v>
       </c>
       <c r="V23" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2386,7 +2386,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="24">
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523151</v>
       </c>
       <c r="T24" t="n">
         <v>136.2185294778021</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>1.67602361383223</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>153.055145824462</v>
@@ -2535,7 +2535,7 @@
         <v>277.3344708341617</v>
       </c>
       <c r="V25" t="n">
-        <v>278.8943527180514</v>
+        <v>147.4670452262606</v>
       </c>
       <c r="W25" t="n">
         <v>272.1038797892121</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U26" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>303.3275354354254</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>142.6286216963787</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523151</v>
       </c>
       <c r="T27" t="n">
         <v>136.2185294778021</v>
@@ -2715,25 +2715,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>150.350591562732</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>153.055145824462</v>
@@ -2775,10 +2775,10 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>85.83738975918645</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>224.0793406271554</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>386.2743287054024</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
         <v>420.8729399924937</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>108.437064780394</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523151</v>
       </c>
       <c r="T30" t="n">
         <v>136.2185294778021</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>170.1431564831852</v>
+        <v>144.5259816990728</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>153.055145824462</v>
@@ -3015,10 +3015,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X31" t="n">
-        <v>98.2518285997471</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,10 +3028,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -3040,13 +3040,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>255.6139801279633</v>
+        <v>176.3789281739069</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>377.7001964246006</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="33">
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523151</v>
       </c>
       <c r="T33" t="n">
         <v>136.2185294778021</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>1.676023613831344</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>16.50033505490435</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>6.890442023638968</v>
+        <v>6.890442023638975</v>
       </c>
       <c r="S34" t="n">
         <v>153.055145824462</v>
@@ -3255,7 +3255,7 @@
         <v>240.1382575886529</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>141.3042329791365</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V35" t="n">
-        <v>344.1614217446759</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523151</v>
       </c>
       <c r="T36" t="n">
         <v>136.2185294778021</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
@@ -3435,16 +3435,16 @@
         <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>94.6803863563985</v>
       </c>
       <c r="G37" t="n">
-        <v>51.29672873556148</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>153.055145824462</v>
@@ -3505,22 +3505,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
-        <v>118.5135983115877</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>421.717170453621</v>
+        <v>354.762773987947</v>
       </c>
       <c r="F38" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>58.49486008622743</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>60.9599276152315</v>
+        <v>60.95992761523151</v>
       </c>
       <c r="T39" t="n">
         <v>136.2185294778021</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.777853762908</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D40" t="n">
         <v>161.683605144497</v>
@@ -3675,10 +3675,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G40" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>72.2334557076878</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>53.38345915204453</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.135521820955</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>277.3344708341617</v>
       </c>
       <c r="V40" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3745,19 +3745,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>176.7922520569507</v>
       </c>
       <c r="G41" t="n">
         <v>398.328419516589</v>
       </c>
       <c r="H41" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,19 +3790,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V41" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>346.6367413166316</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
         <v>407.6027988439302</v>
@@ -3900,7 +3900,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>161.683605144497</v>
@@ -3912,13 +3912,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H43" t="n">
         <v>134.5125973793844</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>6.890442023638968</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>153.055145824462</v>
       </c>
       <c r="T43" t="n">
-        <v>237.135521820955</v>
+        <v>107.8925489783545</v>
       </c>
       <c r="U43" t="n">
         <v>277.3344708341617</v>
       </c>
       <c r="V43" t="n">
-        <v>256.4780535972145</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>210.1046684345147</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>324.9513894645201</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>296.6608158624692</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>110.8831312680897</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
@@ -4149,13 +4149,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T46" t="n">
-        <v>237.135521820955</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3344708341617</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>74.32108963231026</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1641.979875905365</v>
+        <v>424.0589627832682</v>
       </c>
       <c r="C11" t="n">
-        <v>1215.079145918665</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="D11" t="n">
-        <v>791.7865251036656</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="E11" t="n">
-        <v>744.8976435818757</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="F11" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="G11" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="H11" t="n">
         <v>42.25571183992867</v>
@@ -5041,13 +5041,13 @@
         <v>83.13735652372543</v>
       </c>
       <c r="J11" t="n">
-        <v>219.3099931983722</v>
+        <v>219.309993198372</v>
       </c>
       <c r="K11" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740993</v>
       </c>
       <c r="L11" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M11" t="n">
         <v>1005.977266623261</v>
@@ -5056,7 +5056,7 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O11" t="n">
-        <v>1607.71019061354</v>
+        <v>1607.710190613539</v>
       </c>
       <c r="P11" t="n">
         <v>1850.574984537459</v>
@@ -5071,22 +5071,22 @@
         <v>2053.699874737618</v>
       </c>
       <c r="T11" t="n">
-        <v>2053.699874737618</v>
+        <v>1841.472936924977</v>
       </c>
       <c r="U11" t="n">
-        <v>2053.699874737618</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="V11" t="n">
-        <v>2053.699874737618</v>
+        <v>1225.787582528031</v>
       </c>
       <c r="W11" t="n">
-        <v>2053.699874737618</v>
+        <v>829.3962328283778</v>
       </c>
       <c r="X11" t="n">
-        <v>1641.979875905365</v>
+        <v>829.3962328283778</v>
       </c>
       <c r="Y11" t="n">
-        <v>1641.979875905365</v>
+        <v>424.0589627832682</v>
       </c>
     </row>
     <row r="12">
@@ -5129,19 +5129,19 @@
         <v>490.2274481576871</v>
       </c>
       <c r="M12" t="n">
-        <v>905.982449817964</v>
+        <v>731.3925872980502</v>
       </c>
       <c r="N12" t="n">
-        <v>1155.871917380913</v>
+        <v>981.2820548609996</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.861243611046</v>
+        <v>1206.271381091132</v>
       </c>
       <c r="P12" t="n">
-        <v>1558.293390055576</v>
+        <v>1663.748890340481</v>
       </c>
       <c r="Q12" t="n">
-        <v>1668.790211669508</v>
+        <v>1774.245711954414</v>
       </c>
       <c r="R12" t="n">
         <v>1815.507845353902</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>406.0871968183634</v>
+        <v>901.7577918990303</v>
       </c>
       <c r="C13" t="n">
-        <v>406.0871968183634</v>
+        <v>901.7577918990303</v>
       </c>
       <c r="D13" t="n">
-        <v>406.0871968183634</v>
+        <v>738.441019025801</v>
       </c>
       <c r="E13" t="n">
-        <v>406.0871968183634</v>
+        <v>572.2328131786545</v>
       </c>
       <c r="F13" t="n">
-        <v>234.2254225929238</v>
+        <v>400.3710389532149</v>
       </c>
       <c r="G13" t="n">
-        <v>234.2254225929238</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H13" t="n">
-        <v>98.35411210869711</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I13" t="n">
         <v>42.25571183992867</v>
@@ -5202,49 +5202,49 @@
         <v>161.5117779951601</v>
       </c>
       <c r="K13" t="n">
-        <v>242.2552078854987</v>
+        <v>489.5378169995208</v>
       </c>
       <c r="L13" t="n">
-        <v>350.4386912817948</v>
+        <v>597.7213003958168</v>
       </c>
       <c r="M13" t="n">
-        <v>677.6574596599594</v>
+        <v>839.0401668553677</v>
       </c>
       <c r="N13" t="n">
-        <v>1188.836232152783</v>
+        <v>1350.218939348191</v>
       </c>
       <c r="O13" t="n">
-        <v>1667.746184845961</v>
+        <v>1829.128892041369</v>
       </c>
       <c r="P13" t="n">
-        <v>2064.005429355621</v>
+        <v>1912.631931977722</v>
       </c>
       <c r="Q13" t="n">
         <v>2112.785591996434</v>
       </c>
       <c r="R13" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S13" t="n">
-        <v>1951.224392149867</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="T13" t="n">
-        <v>1711.69356202769</v>
+        <v>1873.254761874257</v>
       </c>
       <c r="U13" t="n">
-        <v>1431.557732902274</v>
+        <v>1593.118932748841</v>
       </c>
       <c r="V13" t="n">
-        <v>1149.846265510303</v>
+        <v>1593.118932748841</v>
       </c>
       <c r="W13" t="n">
-        <v>874.9938616828163</v>
+        <v>1318.266528921354</v>
       </c>
       <c r="X13" t="n">
-        <v>632.4299651286213</v>
+        <v>1318.266528921354</v>
       </c>
       <c r="Y13" t="n">
-        <v>406.0871968183634</v>
+        <v>1091.923760611096</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>746.6741917579759</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="C14" t="n">
-        <v>319.7734617712759</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="D14" t="n">
-        <v>319.7734617712759</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="E14" t="n">
-        <v>319.7734617712759</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="F14" t="n">
-        <v>319.7734617712759</v>
+        <v>722.1254006769213</v>
       </c>
       <c r="G14" t="n">
         <v>319.7734617712759</v>
@@ -5302,28 +5302,28 @@
         <v>2025.128259099849</v>
       </c>
       <c r="R14" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S14" t="n">
-        <v>2112.785591996433</v>
+        <v>2053.699874737618</v>
       </c>
       <c r="T14" t="n">
-        <v>2112.785591996433</v>
+        <v>1841.472936924977</v>
       </c>
       <c r="U14" t="n">
-        <v>1854.589652473238</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="V14" t="n">
-        <v>1497.100237599487</v>
+        <v>1583.276997401782</v>
       </c>
       <c r="W14" t="n">
-        <v>1497.100237599487</v>
+        <v>1186.885647702128</v>
       </c>
       <c r="X14" t="n">
-        <v>1085.380238767235</v>
+        <v>1127.462670722031</v>
       </c>
       <c r="Y14" t="n">
-        <v>746.6741917579759</v>
+        <v>722.1254006769213</v>
       </c>
     </row>
     <row r="15">
@@ -5348,7 +5348,7 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G15" t="n">
-        <v>85.36348496437884</v>
+        <v>85.36348496437886</v>
       </c>
       <c r="H15" t="n">
         <v>42.25571183992867</v>
@@ -5357,7 +5357,7 @@
         <v>62.12254544355308</v>
       </c>
       <c r="J15" t="n">
-        <v>140.1681348405093</v>
+        <v>420.213497645329</v>
       </c>
       <c r="K15" t="n">
         <v>566.3059998611114</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>589.2708778658078</v>
+        <v>747.1566345005838</v>
       </c>
       <c r="C16" t="n">
-        <v>417.2983147447238</v>
+        <v>575.1840713794998</v>
       </c>
       <c r="D16" t="n">
-        <v>417.2983147447238</v>
+        <v>575.1840713794998</v>
       </c>
       <c r="E16" t="n">
-        <v>251.0901088975774</v>
+        <v>422.951883123017</v>
       </c>
       <c r="F16" t="n">
         <v>251.0901088975774</v>
@@ -5442,46 +5442,46 @@
         <v>164.3334912372779</v>
       </c>
       <c r="L16" t="n">
-        <v>648.9058682247389</v>
+        <v>381.0718525661463</v>
       </c>
       <c r="M16" t="n">
-        <v>763.4996540122886</v>
+        <v>903.9862865852635</v>
       </c>
       <c r="N16" t="n">
-        <v>1188.836232152782</v>
+        <v>1415.165059078087</v>
       </c>
       <c r="O16" t="n">
-        <v>1667.746184845961</v>
+        <v>1516.372687468062</v>
       </c>
       <c r="P16" t="n">
-        <v>2064.00542935562</v>
+        <v>1912.631931977722</v>
       </c>
       <c r="Q16" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="R16" t="n">
-        <v>2105.825549548313</v>
+        <v>2112.785591996434</v>
       </c>
       <c r="S16" t="n">
-        <v>1951.224392149867</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="T16" t="n">
-        <v>1803.331744395229</v>
+        <v>1718.65360447581</v>
       </c>
       <c r="U16" t="n">
-        <v>1523.195915269813</v>
+        <v>1438.517775350394</v>
       </c>
       <c r="V16" t="n">
-        <v>1523.195915269813</v>
+        <v>1438.517775350394</v>
       </c>
       <c r="W16" t="n">
-        <v>1248.343511442326</v>
+        <v>1163.665371522907</v>
       </c>
       <c r="X16" t="n">
-        <v>1005.779614888131</v>
+        <v>1163.665371522907</v>
       </c>
       <c r="Y16" t="n">
-        <v>779.4368465778734</v>
+        <v>937.3226032126495</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1716.39424229678</v>
+        <v>745.7504016234184</v>
       </c>
       <c r="C17" t="n">
-        <v>1571.394961344064</v>
+        <v>745.7504016234184</v>
       </c>
       <c r="D17" t="n">
-        <v>1148.102340529064</v>
+        <v>745.7504016234184</v>
       </c>
       <c r="E17" t="n">
-        <v>722.1254006769213</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="F17" t="n">
-        <v>722.1254006769213</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="G17" t="n">
         <v>319.7734617712759</v>
       </c>
       <c r="H17" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="I17" t="n">
-        <v>83.13735652372566</v>
+        <v>83.13735652372543</v>
       </c>
       <c r="J17" t="n">
-        <v>219.3099931983724</v>
+        <v>219.3099931983722</v>
       </c>
       <c r="K17" t="n">
-        <v>431.6424856740997</v>
+        <v>431.6424856740994</v>
       </c>
       <c r="L17" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M17" t="n">
         <v>1005.977266623261</v>
@@ -5530,37 +5530,37 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O17" t="n">
-        <v>1607.71019061354</v>
+        <v>1607.710190613539</v>
       </c>
       <c r="P17" t="n">
         <v>1850.574984537459</v>
       </c>
       <c r="Q17" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.128259099848</v>
       </c>
       <c r="R17" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S17" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="T17" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="U17" t="n">
-        <v>2112.785591996434</v>
+        <v>1795.503935214422</v>
       </c>
       <c r="V17" t="n">
-        <v>2112.785591996434</v>
+        <v>1438.014520340671</v>
       </c>
       <c r="W17" t="n">
-        <v>1716.39424229678</v>
+        <v>1041.623170641018</v>
       </c>
       <c r="X17" t="n">
-        <v>1716.39424229678</v>
+        <v>1041.623170641018</v>
       </c>
       <c r="Y17" t="n">
-        <v>1716.39424229678</v>
+        <v>1041.623170641018</v>
       </c>
     </row>
     <row r="18">
@@ -5585,13 +5585,13 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G18" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H18" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="I18" t="n">
-        <v>62.12254544355308</v>
+        <v>62.12254544355307</v>
       </c>
       <c r="J18" t="n">
         <v>140.1681348405093</v>
@@ -5600,7 +5600,7 @@
         <v>286.2606370562917</v>
       </c>
       <c r="L18" t="n">
-        <v>770.2728109625068</v>
+        <v>490.227448157687</v>
       </c>
       <c r="M18" t="n">
         <v>1011.43795010287</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>406.0871968183634</v>
+        <v>567.648396664929</v>
       </c>
       <c r="C19" t="n">
-        <v>234.1146336972794</v>
+        <v>567.648396664929</v>
       </c>
       <c r="D19" t="n">
-        <v>234.1146336972794</v>
+        <v>404.3316237916997</v>
       </c>
       <c r="E19" t="n">
-        <v>67.90642785013296</v>
+        <v>280.5844129239875</v>
       </c>
       <c r="F19" t="n">
-        <v>42.25571183992867</v>
+        <v>280.5844129239875</v>
       </c>
       <c r="G19" t="n">
-        <v>42.25571183992867</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="H19" t="n">
-        <v>42.25571183992867</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I19" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="J19" t="n">
-        <v>83.59006134693919</v>
+        <v>161.51177799516</v>
       </c>
       <c r="K19" t="n">
-        <v>303.5066930982144</v>
+        <v>294.5323984205648</v>
       </c>
       <c r="L19" t="n">
-        <v>411.6901764945105</v>
+        <v>779.1047754080258</v>
       </c>
       <c r="M19" t="n">
-        <v>526.2839622820602</v>
+        <v>1302.019209427143</v>
       </c>
       <c r="N19" t="n">
-        <v>1037.462734774884</v>
+        <v>1415.165059078086</v>
       </c>
       <c r="O19" t="n">
-        <v>1516.372687468062</v>
+        <v>1516.372687468061</v>
       </c>
       <c r="P19" t="n">
-        <v>1912.631931977722</v>
+        <v>1912.631931977721</v>
       </c>
       <c r="Q19" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="R19" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S19" t="n">
-        <v>1951.224392149867</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="T19" t="n">
-        <v>1711.69356202769</v>
+        <v>1873.254761874256</v>
       </c>
       <c r="U19" t="n">
-        <v>1431.557732902274</v>
+        <v>1593.11893274884</v>
       </c>
       <c r="V19" t="n">
-        <v>1149.846265510303</v>
+        <v>1311.407465356869</v>
       </c>
       <c r="W19" t="n">
-        <v>874.9938616828163</v>
+        <v>1036.555061529382</v>
       </c>
       <c r="X19" t="n">
-        <v>632.4299651286213</v>
+        <v>793.991164975187</v>
       </c>
       <c r="Y19" t="n">
-        <v>406.0871968183634</v>
+        <v>567.648396664929</v>
       </c>
     </row>
     <row r="20">
@@ -5728,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>469.1564418266286</v>
+        <v>1084.318940192608</v>
       </c>
       <c r="C20" t="n">
-        <v>42.25571183992866</v>
+        <v>657.4182102059081</v>
       </c>
       <c r="D20" t="n">
-        <v>42.25571183992866</v>
+        <v>444.6076507455741</v>
       </c>
       <c r="E20" t="n">
-        <v>42.25571183992866</v>
+        <v>444.6076507455741</v>
       </c>
       <c r="F20" t="n">
-        <v>42.25571183992866</v>
+        <v>444.6076507455741</v>
       </c>
       <c r="G20" t="n">
-        <v>42.25571183992866</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="H20" t="n">
-        <v>42.25571183992866</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="I20" t="n">
-        <v>83.1373565237252</v>
+        <v>83.13735652372543</v>
       </c>
       <c r="J20" t="n">
-        <v>219.309993198372</v>
+        <v>219.3099931983722</v>
       </c>
       <c r="K20" t="n">
-        <v>431.6424856740993</v>
+        <v>431.6424856740989</v>
       </c>
       <c r="L20" t="n">
-        <v>701.0562546154872</v>
+        <v>701.0562546154868</v>
       </c>
       <c r="M20" t="n">
-        <v>1005.977266623261</v>
+        <v>1005.97726662326</v>
       </c>
       <c r="N20" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251983</v>
       </c>
       <c r="O20" t="n">
         <v>1607.710190613539</v>
@@ -5776,28 +5776,28 @@
         <v>2025.128259099848</v>
       </c>
       <c r="R20" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="S20" t="n">
-        <v>2053.699874737617</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="T20" t="n">
-        <v>2053.699874737617</v>
+        <v>1900.558654183791</v>
       </c>
       <c r="U20" t="n">
-        <v>2053.699874737617</v>
+        <v>1900.558654183791</v>
       </c>
       <c r="V20" t="n">
-        <v>1697.116154650065</v>
+        <v>1900.558654183791</v>
       </c>
       <c r="W20" t="n">
-        <v>1300.724804950411</v>
+        <v>1504.167304484138</v>
       </c>
       <c r="X20" t="n">
-        <v>889.0048061181586</v>
+        <v>1504.167304484138</v>
       </c>
       <c r="Y20" t="n">
-        <v>889.0048061181586</v>
+        <v>1504.167304484138</v>
       </c>
     </row>
     <row r="21">
@@ -5825,13 +5825,13 @@
         <v>85.36348496437884</v>
       </c>
       <c r="H21" t="n">
-        <v>42.25571183992866</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="I21" t="n">
-        <v>62.12254544355307</v>
+        <v>62.12254544355305</v>
       </c>
       <c r="J21" t="n">
-        <v>140.1681348405093</v>
+        <v>140.1681348405092</v>
       </c>
       <c r="K21" t="n">
         <v>286.2606370562917</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>379.5938894716496</v>
+        <v>688.7548689868511</v>
       </c>
       <c r="C22" t="n">
-        <v>207.6213263505656</v>
+        <v>516.7823058657671</v>
       </c>
       <c r="D22" t="n">
-        <v>207.6213263505656</v>
+        <v>353.4655329925378</v>
       </c>
       <c r="E22" t="n">
-        <v>207.6213263505656</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="F22" t="n">
-        <v>207.6213263505656</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="G22" t="n">
-        <v>42.25571183992866</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H22" t="n">
-        <v>42.25571183992866</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I22" t="n">
-        <v>42.25571183992866</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="J22" t="n">
-        <v>83.59006134693917</v>
+        <v>161.51177799516</v>
       </c>
       <c r="K22" t="n">
-        <v>164.3334912372778</v>
+        <v>489.5378169995207</v>
       </c>
       <c r="L22" t="n">
-        <v>648.9058682247389</v>
+        <v>974.1101939869818</v>
       </c>
       <c r="M22" t="n">
-        <v>1171.820302243856</v>
+        <v>1302.019209427142</v>
       </c>
       <c r="N22" t="n">
         <v>1415.165059078086</v>
@@ -5928,34 +5928,34 @@
         <v>1516.372687468061</v>
       </c>
       <c r="P22" t="n">
-        <v>1912.631931977721</v>
+        <v>1912.63193197772</v>
       </c>
       <c r="Q22" t="n">
-        <v>2112.785591996433</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="R22" t="n">
-        <v>2105.825549548313</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="S22" t="n">
-        <v>1951.224392149866</v>
+        <v>1958.184434597986</v>
       </c>
       <c r="T22" t="n">
-        <v>1711.693562027689</v>
+        <v>1958.184434597986</v>
       </c>
       <c r="U22" t="n">
-        <v>1431.557732902274</v>
+        <v>1678.04860547257</v>
       </c>
       <c r="V22" t="n">
-        <v>1149.846265510302</v>
+        <v>1396.337138080599</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9938616828153</v>
+        <v>1121.484734253112</v>
       </c>
       <c r="X22" t="n">
-        <v>632.4299651286204</v>
+        <v>878.9208376989167</v>
       </c>
       <c r="Y22" t="n">
-        <v>406.0871968183625</v>
+        <v>878.9208376989167</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>744.8976435818757</v>
+        <v>1037.532383595875</v>
       </c>
       <c r="C23" t="n">
-        <v>744.8976435818757</v>
+        <v>610.6316536091749</v>
       </c>
       <c r="D23" t="n">
-        <v>744.8976435818757</v>
+        <v>610.6316536091749</v>
       </c>
       <c r="E23" t="n">
-        <v>744.8976435818757</v>
+        <v>610.6316536091749</v>
       </c>
       <c r="F23" t="n">
-        <v>319.7734617712759</v>
+        <v>185.5074717985751</v>
       </c>
       <c r="G23" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="H23" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="I23" t="n">
         <v>83.13735652372543</v>
       </c>
       <c r="J23" t="n">
-        <v>219.309993198372</v>
+        <v>219.3099931983722</v>
       </c>
       <c r="K23" t="n">
-        <v>431.6424856740993</v>
+        <v>431.6424856740994</v>
       </c>
       <c r="L23" t="n">
         <v>701.0562546154872</v>
       </c>
       <c r="M23" t="n">
-        <v>1005.977266623261</v>
+        <v>1005.97726662326</v>
       </c>
       <c r="N23" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251983</v>
       </c>
       <c r="O23" t="n">
         <v>1607.710190613539</v>
       </c>
       <c r="P23" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.574984537458</v>
       </c>
       <c r="Q23" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.128259099848</v>
       </c>
       <c r="R23" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="S23" t="n">
-        <v>2053.699874737618</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="T23" t="n">
-        <v>2053.699874737618</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="U23" t="n">
-        <v>1795.503935214423</v>
+        <v>1854.589652473237</v>
       </c>
       <c r="V23" t="n">
-        <v>1438.014520340672</v>
+        <v>1854.589652473237</v>
       </c>
       <c r="W23" t="n">
-        <v>1438.014520340672</v>
+        <v>1854.589652473237</v>
       </c>
       <c r="X23" t="n">
-        <v>1026.294521508419</v>
+        <v>1442.869653640984</v>
       </c>
       <c r="Y23" t="n">
-        <v>1026.294521508419</v>
+        <v>1037.532383595875</v>
       </c>
     </row>
     <row r="24">
@@ -6059,28 +6059,28 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G24" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H24" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="I24" t="n">
-        <v>62.12254544355308</v>
+        <v>62.12254544355305</v>
       </c>
       <c r="J24" t="n">
-        <v>140.1681348405093</v>
+        <v>140.1681348405092</v>
       </c>
       <c r="K24" t="n">
         <v>286.2606370562917</v>
       </c>
       <c r="L24" t="n">
-        <v>490.2274481576871</v>
+        <v>490.227448157687</v>
       </c>
       <c r="M24" t="n">
-        <v>731.3925872980502</v>
+        <v>731.3925872980501</v>
       </c>
       <c r="N24" t="n">
-        <v>981.2820548609996</v>
+        <v>981.2820548609994</v>
       </c>
       <c r="O24" t="n">
         <v>1206.271381091132</v>
@@ -6089,7 +6089,7 @@
         <v>1383.703527535662</v>
       </c>
       <c r="Q24" t="n">
-        <v>1774.245711954414</v>
+        <v>1668.790211669508</v>
       </c>
       <c r="R24" t="n">
         <v>1815.507845353902</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>215.9212281062977</v>
+        <v>545.802095318796</v>
       </c>
       <c r="C25" t="n">
-        <v>43.94866498521375</v>
+        <v>373.829532197712</v>
       </c>
       <c r="D25" t="n">
-        <v>42.25571183992867</v>
+        <v>373.829532197712</v>
       </c>
       <c r="E25" t="n">
-        <v>42.25571183992867</v>
+        <v>207.6213263505655</v>
       </c>
       <c r="F25" t="n">
-        <v>42.25571183992867</v>
+        <v>207.6213263505655</v>
       </c>
       <c r="G25" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="H25" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="I25" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="J25" t="n">
-        <v>83.59006134693919</v>
+        <v>83.59006134693917</v>
       </c>
       <c r="K25" t="n">
         <v>411.6161003512999</v>
       </c>
       <c r="L25" t="n">
-        <v>519.799583747596</v>
+        <v>896.188477338761</v>
       </c>
       <c r="M25" t="n">
-        <v>634.3933695351457</v>
+        <v>1419.102911357878</v>
       </c>
       <c r="N25" t="n">
-        <v>1145.572142027969</v>
+        <v>1532.248761008821</v>
       </c>
       <c r="O25" t="n">
-        <v>1516.372687468062</v>
+        <v>1980.502389419268</v>
       </c>
       <c r="P25" t="n">
-        <v>1912.631931977722</v>
+        <v>2064.00542935562</v>
       </c>
       <c r="Q25" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="R25" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="S25" t="n">
-        <v>1951.224392149867</v>
+        <v>1958.184434597986</v>
       </c>
       <c r="T25" t="n">
-        <v>1711.69356202769</v>
+        <v>1718.653604475809</v>
       </c>
       <c r="U25" t="n">
-        <v>1431.557732902274</v>
+        <v>1438.517775350393</v>
       </c>
       <c r="V25" t="n">
-        <v>1149.846265510303</v>
+        <v>1289.561164010736</v>
       </c>
       <c r="W25" t="n">
-        <v>874.9938616828163</v>
+        <v>1014.708760183249</v>
       </c>
       <c r="X25" t="n">
-        <v>632.4299651286213</v>
+        <v>772.1448636290539</v>
       </c>
       <c r="Y25" t="n">
-        <v>406.0871968183634</v>
+        <v>545.802095318796</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>894.2806236372284</v>
+        <v>1594.167204249018</v>
       </c>
       <c r="C26" t="n">
-        <v>467.3798936505285</v>
+        <v>1594.167204249018</v>
       </c>
       <c r="D26" t="n">
-        <v>467.3798936505285</v>
+        <v>1170.874583434018</v>
       </c>
       <c r="E26" t="n">
-        <v>467.3798936505285</v>
+        <v>744.8976435818757</v>
       </c>
       <c r="F26" t="n">
-        <v>42.25571183992867</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="G26" t="n">
-        <v>42.25571183992867</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="H26" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="I26" t="n">
-        <v>83.13735652372566</v>
+        <v>83.13735652372542</v>
       </c>
       <c r="J26" t="n">
-        <v>219.3099931983724</v>
+        <v>219.3099931983716</v>
       </c>
       <c r="K26" t="n">
-        <v>431.6424856740997</v>
+        <v>431.6424856740989</v>
       </c>
       <c r="L26" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154868</v>
       </c>
       <c r="M26" t="n">
-        <v>1005.977266623261</v>
+        <v>1005.97726662326</v>
       </c>
       <c r="N26" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251983</v>
       </c>
       <c r="O26" t="n">
         <v>1607.710190613539</v>
       </c>
       <c r="P26" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.574984537458</v>
       </c>
       <c r="Q26" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.128259099848</v>
       </c>
       <c r="R26" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="S26" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="T26" t="n">
-        <v>2112.785591996434</v>
+        <v>1900.558654183791</v>
       </c>
       <c r="U26" t="n">
-        <v>1854.589652473238</v>
+        <v>1900.558654183791</v>
       </c>
       <c r="V26" t="n">
-        <v>1854.589652473238</v>
+        <v>1594.167204249018</v>
       </c>
       <c r="W26" t="n">
-        <v>1458.198302773585</v>
+        <v>1594.167204249018</v>
       </c>
       <c r="X26" t="n">
-        <v>1314.128987928758</v>
+        <v>1594.167204249018</v>
       </c>
       <c r="Y26" t="n">
-        <v>1314.128987928758</v>
+        <v>1594.167204249018</v>
       </c>
     </row>
     <row r="27">
@@ -6296,31 +6296,31 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G27" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H27" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="I27" t="n">
-        <v>62.12254544355308</v>
+        <v>62.12254544355305</v>
       </c>
       <c r="J27" t="n">
-        <v>140.1681348405093</v>
+        <v>140.1681348405092</v>
       </c>
       <c r="K27" t="n">
         <v>286.2606370562917</v>
       </c>
       <c r="L27" t="n">
-        <v>490.2274481576871</v>
+        <v>490.227448157687</v>
       </c>
       <c r="M27" t="n">
-        <v>731.3925872980502</v>
+        <v>1011.43795010287</v>
       </c>
       <c r="N27" t="n">
-        <v>981.2820548609996</v>
+        <v>1261.327417665819</v>
       </c>
       <c r="O27" t="n">
-        <v>1206.271381091132</v>
+        <v>1486.316743895952</v>
       </c>
       <c r="P27" t="n">
         <v>1663.748890340481</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>371.7806905603044</v>
+        <v>740.2975709360983</v>
       </c>
       <c r="C28" t="n">
-        <v>371.7806905603044</v>
+        <v>568.3250078150143</v>
       </c>
       <c r="D28" t="n">
-        <v>208.4639176870751</v>
+        <v>568.3250078150143</v>
       </c>
       <c r="E28" t="n">
-        <v>42.25571183992867</v>
+        <v>568.3250078150143</v>
       </c>
       <c r="F28" t="n">
-        <v>42.25571183992867</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="G28" t="n">
-        <v>42.25571183992867</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H28" t="n">
-        <v>42.25571183992867</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I28" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992864</v>
       </c>
       <c r="J28" t="n">
-        <v>161.5117779951601</v>
+        <v>161.51177799516</v>
       </c>
       <c r="K28" t="n">
-        <v>424.2618665477494</v>
+        <v>489.5378169995207</v>
       </c>
       <c r="L28" t="n">
-        <v>532.4453499440455</v>
+        <v>597.7213003958168</v>
       </c>
       <c r="M28" t="n">
-        <v>1055.359783963163</v>
+        <v>1120.635734414934</v>
       </c>
       <c r="N28" t="n">
-        <v>1566.538556455986</v>
+        <v>1501.592436726089</v>
       </c>
       <c r="O28" t="n">
-        <v>1667.746184845961</v>
+        <v>1980.502389419268</v>
       </c>
       <c r="P28" t="n">
-        <v>2064.005429355621</v>
+        <v>2064.00542935562</v>
       </c>
       <c r="Q28" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="R28" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996432</v>
       </c>
       <c r="S28" t="n">
-        <v>1951.224392149867</v>
+        <v>1958.184434597986</v>
       </c>
       <c r="T28" t="n">
-        <v>1711.69356202769</v>
+        <v>1718.653604475809</v>
       </c>
       <c r="U28" t="n">
-        <v>1431.557732902274</v>
+        <v>1438.517775350393</v>
       </c>
       <c r="V28" t="n">
-        <v>1149.846265510303</v>
+        <v>1156.806307958422</v>
       </c>
       <c r="W28" t="n">
-        <v>874.9938616828163</v>
+        <v>1156.806307958422</v>
       </c>
       <c r="X28" t="n">
-        <v>788.2894275826279</v>
+        <v>1156.806307958422</v>
       </c>
       <c r="Y28" t="n">
-        <v>561.94665927237</v>
+        <v>930.463539648164</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>869.7318325561739</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="C29" t="n">
-        <v>869.7318325561739</v>
+        <v>1685.884862009733</v>
       </c>
       <c r="D29" t="n">
-        <v>869.7318325561739</v>
+        <v>1295.708772408316</v>
       </c>
       <c r="E29" t="n">
         <v>869.7318325561739</v>
@@ -6466,13 +6466,13 @@
         <v>219.3099931983722</v>
       </c>
       <c r="K29" t="n">
-        <v>431.6424856740995</v>
+        <v>431.6424856740994</v>
       </c>
       <c r="L29" t="n">
-        <v>701.0562546154874</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M29" t="n">
-        <v>1005.97726662326</v>
+        <v>1005.977266623261</v>
       </c>
       <c r="N29" t="n">
         <v>1316.581963251984</v>
@@ -6490,25 +6490,25 @@
         <v>2112.785591996433</v>
       </c>
       <c r="S29" t="n">
-        <v>2053.699874737617</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="T29" t="n">
-        <v>2053.699874737617</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="U29" t="n">
-        <v>1795.503935214422</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="V29" t="n">
-        <v>1795.503935214422</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="W29" t="n">
-        <v>1399.112585514769</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="X29" t="n">
-        <v>1289.580196847704</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="Y29" t="n">
-        <v>1289.580196847704</v>
+        <v>2112.785591996433</v>
       </c>
     </row>
     <row r="30">
@@ -6548,7 +6548,7 @@
         <v>286.2606370562917</v>
       </c>
       <c r="L30" t="n">
-        <v>490.2274481576871</v>
+        <v>490.227448157687</v>
       </c>
       <c r="M30" t="n">
         <v>1011.43795010287</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>549.4068220596815</v>
+        <v>691.7879354188697</v>
       </c>
       <c r="C31" t="n">
-        <v>377.4342589385975</v>
+        <v>519.8153722977856</v>
       </c>
       <c r="D31" t="n">
-        <v>214.1174860653682</v>
+        <v>519.8153722977856</v>
       </c>
       <c r="E31" t="n">
-        <v>214.1174860653682</v>
+        <v>353.6071664506392</v>
       </c>
       <c r="F31" t="n">
-        <v>42.25571183992866</v>
+        <v>207.6213263505656</v>
       </c>
       <c r="G31" t="n">
         <v>42.25571183992866</v>
@@ -6621,52 +6621,52 @@
         <v>42.25571183992866</v>
       </c>
       <c r="J31" t="n">
-        <v>83.59006134693919</v>
+        <v>161.51177799516</v>
       </c>
       <c r="K31" t="n">
-        <v>304.8201238102519</v>
+        <v>242.2552078854987</v>
       </c>
       <c r="L31" t="n">
-        <v>789.392500797713</v>
+        <v>350.4386912817947</v>
       </c>
       <c r="M31" t="n">
-        <v>903.9862865852626</v>
+        <v>873.3531253009118</v>
       </c>
       <c r="N31" t="n">
-        <v>1415.165059078086</v>
+        <v>1384.531897793735</v>
       </c>
       <c r="O31" t="n">
-        <v>1516.372687468061</v>
+        <v>1863.441850486914</v>
       </c>
       <c r="P31" t="n">
-        <v>1912.631931977721</v>
+        <v>1946.944890423266</v>
       </c>
       <c r="Q31" t="n">
         <v>2112.785591996433</v>
       </c>
       <c r="R31" t="n">
-        <v>2105.825549548313</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S31" t="n">
-        <v>1951.224392149866</v>
+        <v>1958.184434597986</v>
       </c>
       <c r="T31" t="n">
-        <v>1711.693562027689</v>
+        <v>1718.653604475809</v>
       </c>
       <c r="U31" t="n">
-        <v>1431.557732902274</v>
+        <v>1438.517775350394</v>
       </c>
       <c r="V31" t="n">
-        <v>1149.846265510302</v>
+        <v>1156.806307958422</v>
       </c>
       <c r="W31" t="n">
-        <v>874.9938616828153</v>
+        <v>881.9539041309354</v>
       </c>
       <c r="X31" t="n">
-        <v>775.7495903699395</v>
+        <v>881.9539041309354</v>
       </c>
       <c r="Y31" t="n">
-        <v>549.4068220596815</v>
+        <v>881.9539041309354</v>
       </c>
     </row>
     <row r="32">
@@ -6676,37 +6676,37 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>444.6076507455741</v>
+        <v>1171.798373568576</v>
       </c>
       <c r="C32" t="n">
-        <v>444.6076507455741</v>
+        <v>744.8976435818757</v>
       </c>
       <c r="D32" t="n">
-        <v>444.6076507455741</v>
+        <v>744.8976435818757</v>
       </c>
       <c r="E32" t="n">
-        <v>444.6076507455741</v>
+        <v>744.8976435818757</v>
       </c>
       <c r="F32" t="n">
-        <v>444.6076507455741</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="G32" t="n">
-        <v>42.25571183992866</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="H32" t="n">
         <v>42.25571183992866</v>
       </c>
       <c r="I32" t="n">
-        <v>83.13735652372544</v>
+        <v>83.13735652372543</v>
       </c>
       <c r="J32" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983721</v>
       </c>
       <c r="K32" t="n">
-        <v>431.6424856740995</v>
+        <v>431.6424856740994</v>
       </c>
       <c r="L32" t="n">
-        <v>701.0562546154874</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M32" t="n">
         <v>1005.977266623261</v>
@@ -6715,7 +6715,7 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O32" t="n">
-        <v>1607.71019061354</v>
+        <v>1607.710190613539</v>
       </c>
       <c r="P32" t="n">
         <v>1850.574984537459</v>
@@ -6730,22 +6730,22 @@
         <v>2112.785591996433</v>
       </c>
       <c r="T32" t="n">
-        <v>1900.558654183792</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="U32" t="n">
-        <v>1642.362714660596</v>
+        <v>1934.625058487436</v>
       </c>
       <c r="V32" t="n">
-        <v>1642.362714660596</v>
+        <v>1577.135643613685</v>
       </c>
       <c r="W32" t="n">
-        <v>1245.971364960943</v>
+        <v>1577.135643613685</v>
       </c>
       <c r="X32" t="n">
-        <v>864.4560150371042</v>
+        <v>1577.135643613685</v>
       </c>
       <c r="Y32" t="n">
-        <v>864.4560150371042</v>
+        <v>1171.798373568576</v>
       </c>
     </row>
     <row r="33">
@@ -6782,10 +6782,10 @@
         <v>140.1681348405093</v>
       </c>
       <c r="K33" t="n">
-        <v>286.2606370562917</v>
+        <v>293.2810334049438</v>
       </c>
       <c r="L33" t="n">
-        <v>497.2478445063391</v>
+        <v>497.2478445063392</v>
       </c>
       <c r="M33" t="n">
         <v>738.4129836467022</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>215.9212281062968</v>
+        <v>632.4299651286204</v>
       </c>
       <c r="C34" t="n">
-        <v>43.94866498521284</v>
+        <v>632.4299651286204</v>
       </c>
       <c r="D34" t="n">
-        <v>42.25571183992866</v>
+        <v>469.1131922553911</v>
       </c>
       <c r="E34" t="n">
-        <v>42.25571183992866</v>
+        <v>452.4461871494271</v>
       </c>
       <c r="F34" t="n">
-        <v>42.25571183992866</v>
+        <v>280.5844129239875</v>
       </c>
       <c r="G34" t="n">
-        <v>42.25571183992866</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="H34" t="n">
-        <v>42.25571183992866</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I34" t="n">
         <v>42.25571183992866</v>
       </c>
       <c r="J34" t="n">
-        <v>83.59006134693919</v>
+        <v>83.59006134693917</v>
       </c>
       <c r="K34" t="n">
-        <v>303.5066930982135</v>
+        <v>164.3334912372778</v>
       </c>
       <c r="L34" t="n">
-        <v>411.6901764945096</v>
+        <v>648.9058682247389</v>
       </c>
       <c r="M34" t="n">
-        <v>526.2839622820593</v>
+        <v>990.4136642332662</v>
       </c>
       <c r="N34" t="n">
-        <v>1037.462734774883</v>
+        <v>1501.59243672609</v>
       </c>
       <c r="O34" t="n">
-        <v>1516.372687468061</v>
+        <v>1980.502389419268</v>
       </c>
       <c r="P34" t="n">
-        <v>1912.631931977721</v>
+        <v>2064.00542935562</v>
       </c>
       <c r="Q34" t="n">
         <v>2112.785591996433</v>
@@ -6903,7 +6903,7 @@
         <v>632.4299651286204</v>
       </c>
       <c r="Y34" t="n">
-        <v>406.0871968183625</v>
+        <v>632.4299651286204</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>469.1564418266286</v>
+        <v>888.4819500871927</v>
       </c>
       <c r="C35" t="n">
-        <v>42.25571183992867</v>
+        <v>888.4819500871927</v>
       </c>
       <c r="D35" t="n">
-        <v>42.25571183992867</v>
+        <v>888.4819500871927</v>
       </c>
       <c r="E35" t="n">
-        <v>42.25571183992867</v>
+        <v>462.5050102350502</v>
       </c>
       <c r="F35" t="n">
-        <v>42.25571183992867</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="G35" t="n">
-        <v>42.25571183992867</v>
+        <v>319.7734617712759</v>
       </c>
       <c r="H35" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="I35" t="n">
-        <v>83.13735652372543</v>
+        <v>83.1373565237252</v>
       </c>
       <c r="J35" t="n">
-        <v>219.3099931983722</v>
+        <v>219.309993198372</v>
       </c>
       <c r="K35" t="n">
-        <v>431.6424856740996</v>
+        <v>431.6424856740993</v>
       </c>
       <c r="L35" t="n">
-        <v>701.0562546154873</v>
+        <v>701.0562546154872</v>
       </c>
       <c r="M35" t="n">
         <v>1005.977266623261</v>
@@ -6955,34 +6955,34 @@
         <v>1607.710190613539</v>
       </c>
       <c r="P35" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.574984537458</v>
       </c>
       <c r="Q35" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.128259099848</v>
       </c>
       <c r="R35" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S35" t="n">
-        <v>2053.699874737618</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="T35" t="n">
-        <v>2053.699874737618</v>
+        <v>1900.558654183792</v>
       </c>
       <c r="U35" t="n">
-        <v>2053.699874737618</v>
+        <v>1642.362714660596</v>
       </c>
       <c r="V35" t="n">
-        <v>1706.062074995521</v>
+        <v>1284.873299786846</v>
       </c>
       <c r="W35" t="n">
-        <v>1706.062074995521</v>
+        <v>888.4819500871927</v>
       </c>
       <c r="X35" t="n">
-        <v>1294.342076163268</v>
+        <v>888.4819500871927</v>
       </c>
       <c r="Y35" t="n">
-        <v>889.0048061181586</v>
+        <v>888.4819500871927</v>
       </c>
     </row>
     <row r="36">
@@ -7007,13 +7007,13 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G36" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H36" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="I36" t="n">
-        <v>62.12254544355308</v>
+        <v>62.12254544355307</v>
       </c>
       <c r="J36" t="n">
         <v>140.1681348405093</v>
@@ -7022,19 +7022,19 @@
         <v>286.2606370562917</v>
       </c>
       <c r="L36" t="n">
-        <v>490.2274481576871</v>
+        <v>490.227448157687</v>
       </c>
       <c r="M36" t="n">
-        <v>731.3925872980502</v>
+        <v>731.3925872980501</v>
       </c>
       <c r="N36" t="n">
-        <v>981.2820548609996</v>
+        <v>981.2820548609994</v>
       </c>
       <c r="O36" t="n">
-        <v>1206.271381091132</v>
+        <v>1486.316743895952</v>
       </c>
       <c r="P36" t="n">
-        <v>1383.703527535662</v>
+        <v>1663.748890340481</v>
       </c>
       <c r="Q36" t="n">
         <v>1774.245711954414</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>632.4299651286213</v>
+        <v>639.3900075767405</v>
       </c>
       <c r="C37" t="n">
-        <v>632.4299651286213</v>
+        <v>467.4174444556564</v>
       </c>
       <c r="D37" t="n">
-        <v>469.1131922553921</v>
+        <v>304.1006715824271</v>
       </c>
       <c r="E37" t="n">
-        <v>302.9049864082456</v>
+        <v>137.8924657352807</v>
       </c>
       <c r="F37" t="n">
-        <v>302.9049864082456</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="G37" t="n">
-        <v>251.0901088975774</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="H37" t="n">
-        <v>115.2187984133507</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="I37" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="J37" t="n">
-        <v>161.5117779951601</v>
+        <v>161.51177799516</v>
       </c>
       <c r="K37" t="n">
         <v>242.2552078854987</v>
       </c>
       <c r="L37" t="n">
-        <v>563.0636738724097</v>
+        <v>726.8275848729597</v>
       </c>
       <c r="M37" t="n">
-        <v>677.6574596599594</v>
+        <v>990.4136642332662</v>
       </c>
       <c r="N37" t="n">
-        <v>1188.836232152783</v>
+        <v>1501.59243672609</v>
       </c>
       <c r="O37" t="n">
-        <v>1667.746184845961</v>
+        <v>1980.502389419268</v>
       </c>
       <c r="P37" t="n">
-        <v>2064.005429355621</v>
+        <v>2064.00542935562</v>
       </c>
       <c r="Q37" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="R37" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S37" t="n">
-        <v>1951.224392149867</v>
+        <v>1958.184434597986</v>
       </c>
       <c r="T37" t="n">
-        <v>1711.69356202769</v>
+        <v>1718.653604475809</v>
       </c>
       <c r="U37" t="n">
-        <v>1431.557732902274</v>
+        <v>1438.517775350394</v>
       </c>
       <c r="V37" t="n">
-        <v>1149.846265510303</v>
+        <v>1156.806307958422</v>
       </c>
       <c r="W37" t="n">
-        <v>874.9938616828163</v>
+        <v>881.9539041309354</v>
       </c>
       <c r="X37" t="n">
-        <v>632.4299651286213</v>
+        <v>639.3900075767405</v>
       </c>
       <c r="Y37" t="n">
-        <v>632.4299651286213</v>
+        <v>639.3900075767405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1692.937227704904</v>
+        <v>400.6019481913903</v>
       </c>
       <c r="C38" t="n">
-        <v>1573.226522339663</v>
+        <v>400.6019481913903</v>
       </c>
       <c r="D38" t="n">
-        <v>1573.226522339663</v>
+        <v>400.6019481913903</v>
       </c>
       <c r="E38" t="n">
-        <v>1147.249582487521</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="F38" t="n">
-        <v>722.1254006769213</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="G38" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="H38" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="I38" t="n">
-        <v>83.13735652372566</v>
+        <v>83.13735652372497</v>
       </c>
       <c r="J38" t="n">
-        <v>219.3099931983724</v>
+        <v>219.3099931983718</v>
       </c>
       <c r="K38" t="n">
-        <v>431.6424856740997</v>
+        <v>431.6424856740989</v>
       </c>
       <c r="L38" t="n">
-        <v>701.0562546154875</v>
+        <v>701.0562546154868</v>
       </c>
       <c r="M38" t="n">
-        <v>1005.977266623261</v>
+        <v>1005.97726662326</v>
       </c>
       <c r="N38" t="n">
-        <v>1316.581963251984</v>
+        <v>1316.581963251983</v>
       </c>
       <c r="O38" t="n">
-        <v>1607.71019061354</v>
+        <v>1607.710190613539</v>
       </c>
       <c r="P38" t="n">
-        <v>1850.574984537459</v>
+        <v>1850.574984537458</v>
       </c>
       <c r="Q38" t="n">
-        <v>2025.128259099849</v>
+        <v>2025.128259099848</v>
       </c>
       <c r="R38" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S38" t="n">
-        <v>2112.785591996434</v>
+        <v>2053.699874737617</v>
       </c>
       <c r="T38" t="n">
-        <v>2112.785591996434</v>
+        <v>1841.472936924976</v>
       </c>
       <c r="U38" t="n">
-        <v>2112.785591996434</v>
+        <v>1583.276997401781</v>
       </c>
       <c r="V38" t="n">
-        <v>2112.785591996434</v>
+        <v>1225.78758252803</v>
       </c>
       <c r="W38" t="n">
-        <v>2112.785591996434</v>
+        <v>1225.78758252803</v>
       </c>
       <c r="X38" t="n">
-        <v>2112.785591996434</v>
+        <v>1225.78758252803</v>
       </c>
       <c r="Y38" t="n">
-        <v>2112.785591996434</v>
+        <v>820.4503124829204</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>895.3254245933093</v>
+        <v>598.0476779507782</v>
       </c>
       <c r="C39" t="n">
-        <v>777.8195211108141</v>
+        <v>480.5417744682829</v>
       </c>
       <c r="D39" t="n">
-        <v>673.9795626260991</v>
+        <v>376.701815983568</v>
       </c>
       <c r="E39" t="n">
-        <v>569.2776288990364</v>
+        <v>271.9998822565052</v>
       </c>
       <c r="F39" t="n">
-        <v>475.6317985819405</v>
+        <v>178.3540519394094</v>
       </c>
       <c r="G39" t="n">
-        <v>382.64123160691</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H39" t="n">
-        <v>339.5334584824598</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="I39" t="n">
-        <v>359.4002920860842</v>
+        <v>62.12254544355307</v>
       </c>
       <c r="J39" t="n">
-        <v>437.4458814830404</v>
+        <v>140.1681348405093</v>
       </c>
       <c r="K39" t="n">
-        <v>583.5383836988228</v>
+        <v>286.2606370562917</v>
       </c>
       <c r="L39" t="n">
-        <v>787.5051948002182</v>
+        <v>490.227448157687</v>
       </c>
       <c r="M39" t="n">
-        <v>1028.670333940581</v>
+        <v>731.3925872980501</v>
       </c>
       <c r="N39" t="n">
-        <v>1278.559801503531</v>
+        <v>981.2820548609994</v>
       </c>
       <c r="O39" t="n">
-        <v>1783.594490538483</v>
+        <v>1206.271381091132</v>
       </c>
       <c r="P39" t="n">
-        <v>1961.026636983012</v>
+        <v>1663.748890340481</v>
       </c>
       <c r="Q39" t="n">
-        <v>2071.523458596945</v>
+        <v>1774.245711954414</v>
       </c>
       <c r="R39" t="n">
-        <v>2112.785591996434</v>
+        <v>1815.507845353902</v>
       </c>
       <c r="S39" t="n">
-        <v>2051.209907536604</v>
+        <v>1753.932160894073</v>
       </c>
       <c r="T39" t="n">
-        <v>1913.615433316601</v>
+        <v>1616.33768667407</v>
       </c>
       <c r="U39" t="n">
-        <v>1728.917184920933</v>
+        <v>1431.639438278402</v>
       </c>
       <c r="V39" t="n">
-        <v>1523.9440460602</v>
+        <v>1226.666299417668</v>
       </c>
       <c r="W39" t="n">
-        <v>1327.422668893417</v>
+        <v>1030.144922250886</v>
       </c>
       <c r="X39" t="n">
-        <v>1163.94532266008</v>
+        <v>866.6675760175485</v>
       </c>
       <c r="Y39" t="n">
-        <v>1024.252434013372</v>
+        <v>726.9746873708409</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1087.315055912523</v>
+        <v>788.5781144802501</v>
       </c>
       <c r="C40" t="n">
-        <v>917.8424763540297</v>
+        <v>616.605551359166</v>
       </c>
       <c r="D40" t="n">
-        <v>754.5257034808004</v>
+        <v>453.2887784859367</v>
       </c>
       <c r="E40" t="n">
-        <v>588.3174976336539</v>
+        <v>287.0805726387903</v>
       </c>
       <c r="F40" t="n">
-        <v>416.4557234082143</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="G40" t="n">
-        <v>251.0901088975774</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="H40" t="n">
         <v>115.2187984133507</v>
       </c>
       <c r="I40" t="n">
-        <v>42.25571183992867</v>
+        <v>42.25571183992866</v>
       </c>
       <c r="J40" t="n">
-        <v>161.5117779951601</v>
+        <v>83.59006134693917</v>
       </c>
       <c r="K40" t="n">
-        <v>445.9058957984647</v>
+        <v>164.3334912372778</v>
       </c>
       <c r="L40" t="n">
-        <v>930.4782727859257</v>
+        <v>648.9058682247389</v>
       </c>
       <c r="M40" t="n">
-        <v>1453.392706805043</v>
+        <v>1171.820302243856</v>
       </c>
       <c r="N40" t="n">
-        <v>1566.538556455986</v>
+        <v>1501.59243672609</v>
       </c>
       <c r="O40" t="n">
-        <v>1667.746184845961</v>
+        <v>1980.502389419268</v>
       </c>
       <c r="P40" t="n">
-        <v>2064.005429355621</v>
+        <v>2064.00542935562</v>
       </c>
       <c r="Q40" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="R40" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S40" t="n">
-        <v>2112.785591996434</v>
+        <v>2058.862905984266</v>
       </c>
       <c r="T40" t="n">
-        <v>2112.785591996434</v>
+        <v>1819.33207586209</v>
       </c>
       <c r="U40" t="n">
-        <v>2112.785591996434</v>
+        <v>1539.196246736674</v>
       </c>
       <c r="V40" t="n">
-        <v>1831.074124604462</v>
+        <v>1257.484779344703</v>
       </c>
       <c r="W40" t="n">
-        <v>1556.221720776975</v>
+        <v>1257.484779344703</v>
       </c>
       <c r="X40" t="n">
-        <v>1313.657824222781</v>
+        <v>1014.920882790508</v>
       </c>
       <c r="Y40" t="n">
-        <v>1087.315055912523</v>
+        <v>788.5781144802501</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>722.1254006769213</v>
+        <v>1046.478303941332</v>
       </c>
       <c r="C41" t="n">
-        <v>722.1254006769213</v>
+        <v>1046.478303941332</v>
       </c>
       <c r="D41" t="n">
-        <v>722.1254006769213</v>
+        <v>623.1856831263324</v>
       </c>
       <c r="E41" t="n">
-        <v>722.1254006769213</v>
+        <v>623.1856831263324</v>
       </c>
       <c r="F41" t="n">
-        <v>722.1254006769213</v>
+        <v>444.6076507455741</v>
       </c>
       <c r="G41" t="n">
-        <v>319.7734617712759</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="H41" t="n">
         <v>42.25571183992867</v>
       </c>
       <c r="I41" t="n">
-        <v>83.13735652372546</v>
+        <v>83.13735652372554</v>
       </c>
       <c r="J41" t="n">
-        <v>219.3099931983722</v>
+        <v>219.3099931983723</v>
       </c>
       <c r="K41" t="n">
-        <v>431.6424856741001</v>
+        <v>431.6424856740996</v>
       </c>
       <c r="L41" t="n">
-        <v>701.056254615488</v>
+        <v>701.0562546154874</v>
       </c>
       <c r="M41" t="n">
-        <v>1005.977266623262</v>
+        <v>1005.977266623261</v>
       </c>
       <c r="N41" t="n">
-        <v>1316.581963251985</v>
+        <v>1316.581963251984</v>
       </c>
       <c r="O41" t="n">
-        <v>1607.71019061354</v>
+        <v>1607.710190613539</v>
       </c>
       <c r="P41" t="n">
-        <v>1850.57498453746</v>
+        <v>1850.574984537459</v>
       </c>
       <c r="Q41" t="n">
         <v>2025.128259099849</v>
       </c>
       <c r="R41" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S41" t="n">
-        <v>2053.699874737618</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="T41" t="n">
-        <v>1841.472936924977</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="U41" t="n">
-        <v>1841.472936924977</v>
+        <v>1854.589652473238</v>
       </c>
       <c r="V41" t="n">
-        <v>1483.983522051226</v>
+        <v>1854.589652473238</v>
       </c>
       <c r="W41" t="n">
-        <v>1133.845399509174</v>
+        <v>1458.198302773585</v>
       </c>
       <c r="X41" t="n">
-        <v>722.1254006769213</v>
+        <v>1046.478303941332</v>
       </c>
       <c r="Y41" t="n">
-        <v>722.1254006769213</v>
+        <v>1046.478303941332</v>
       </c>
     </row>
     <row r="42">
@@ -7481,7 +7481,7 @@
         <v>178.3540519394094</v>
       </c>
       <c r="G42" t="n">
-        <v>85.36348496437886</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H42" t="n">
         <v>42.25571183992867</v>
@@ -7502,13 +7502,13 @@
         <v>731.3925872980502</v>
       </c>
       <c r="N42" t="n">
-        <v>981.2820548609996</v>
+        <v>1254.307021317167</v>
       </c>
       <c r="O42" t="n">
-        <v>1206.271381091132</v>
+        <v>1479.2963475473</v>
       </c>
       <c r="P42" t="n">
-        <v>1383.703527535662</v>
+        <v>1656.72849399183</v>
       </c>
       <c r="Q42" t="n">
         <v>1774.245711954414</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.4163583184687</v>
+        <v>579.7724962814436</v>
       </c>
       <c r="C43" t="n">
-        <v>341.4437951973847</v>
+        <v>579.7724962814436</v>
       </c>
       <c r="D43" t="n">
-        <v>178.1270223241554</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="E43" t="n">
-        <v>178.1270223241554</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="F43" t="n">
-        <v>178.1270223241554</v>
+        <v>416.4557234082143</v>
       </c>
       <c r="G43" t="n">
-        <v>178.1270223241554</v>
+        <v>251.0901088975774</v>
       </c>
       <c r="H43" t="n">
-        <v>42.25571183992867</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I43" t="n">
         <v>42.25571183992867</v>
@@ -7572,49 +7572,49 @@
         <v>161.5117779951601</v>
       </c>
       <c r="K43" t="n">
-        <v>489.5378169995208</v>
+        <v>242.2552078854987</v>
       </c>
       <c r="L43" t="n">
-        <v>974.1101939869818</v>
+        <v>350.4386912817948</v>
       </c>
       <c r="M43" t="n">
-        <v>1497.024628006099</v>
+        <v>873.3531253009119</v>
       </c>
       <c r="N43" t="n">
-        <v>1610.170477657043</v>
+        <v>1384.531897793735</v>
       </c>
       <c r="O43" t="n">
-        <v>1829.128892041369</v>
+        <v>1863.441850486914</v>
       </c>
       <c r="P43" t="n">
-        <v>1912.631931977722</v>
+        <v>1946.944890423266</v>
       </c>
       <c r="Q43" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="R43" t="n">
-        <v>2105.825549548314</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S43" t="n">
-        <v>1951.224392149867</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="T43" t="n">
-        <v>1711.69356202769</v>
+        <v>1849.202061892578</v>
       </c>
       <c r="U43" t="n">
-        <v>1431.557732902274</v>
+        <v>1569.066232767162</v>
       </c>
       <c r="V43" t="n">
-        <v>1172.488991894987</v>
+        <v>1287.354765375191</v>
       </c>
       <c r="W43" t="n">
-        <v>1172.488991894987</v>
+        <v>1012.502361547704</v>
       </c>
       <c r="X43" t="n">
-        <v>929.9250953407923</v>
+        <v>769.9384649935093</v>
       </c>
       <c r="Y43" t="n">
-        <v>703.5823270305343</v>
+        <v>769.9384649935093</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>467.3798936505285</v>
+        <v>894.2806236372284</v>
       </c>
       <c r="C44" t="n">
         <v>467.3798936505285</v>
@@ -7645,16 +7645,16 @@
         <v>42.25571183992867</v>
       </c>
       <c r="I44" t="n">
-        <v>83.13735652372543</v>
+        <v>83.13735652372546</v>
       </c>
       <c r="J44" t="n">
-        <v>219.309993198372</v>
+        <v>219.3099931983722</v>
       </c>
       <c r="K44" t="n">
-        <v>431.6424856740993</v>
+        <v>431.6424856740995</v>
       </c>
       <c r="L44" t="n">
-        <v>701.0562546154872</v>
+        <v>701.0562546154874</v>
       </c>
       <c r="M44" t="n">
         <v>1005.977266623261</v>
@@ -7663,7 +7663,7 @@
         <v>1316.581963251984</v>
       </c>
       <c r="O44" t="n">
-        <v>1607.710190613539</v>
+        <v>1607.71019061354</v>
       </c>
       <c r="P44" t="n">
         <v>1850.574984537459</v>
@@ -7672,28 +7672,28 @@
         <v>2025.128259099849</v>
       </c>
       <c r="R44" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S44" t="n">
-        <v>2053.699874737618</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="T44" t="n">
-        <v>1841.472936924977</v>
+        <v>1900.558654183792</v>
       </c>
       <c r="U44" t="n">
-        <v>1583.276997401782</v>
+        <v>1642.362714660597</v>
       </c>
       <c r="V44" t="n">
-        <v>1583.276997401782</v>
+        <v>1642.362714660597</v>
       </c>
       <c r="W44" t="n">
-        <v>1186.885647702128</v>
+        <v>1314.128987928758</v>
       </c>
       <c r="X44" t="n">
-        <v>1186.885647702128</v>
+        <v>1314.128987928758</v>
       </c>
       <c r="Y44" t="n">
-        <v>887.2282579420585</v>
+        <v>1314.128987928758</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>895.3254245933093</v>
+        <v>598.0476779507782</v>
       </c>
       <c r="C45" t="n">
-        <v>777.8195211108141</v>
+        <v>480.5417744682829</v>
       </c>
       <c r="D45" t="n">
-        <v>673.9795626260991</v>
+        <v>376.701815983568</v>
       </c>
       <c r="E45" t="n">
-        <v>569.2776288990364</v>
+        <v>271.9998822565052</v>
       </c>
       <c r="F45" t="n">
-        <v>475.6317985819405</v>
+        <v>178.3540519394094</v>
       </c>
       <c r="G45" t="n">
-        <v>382.64123160691</v>
+        <v>85.36348496437884</v>
       </c>
       <c r="H45" t="n">
-        <v>339.5334584824598</v>
+        <v>42.25571183992867</v>
       </c>
       <c r="I45" t="n">
-        <v>359.4002920860842</v>
+        <v>62.12254544355308</v>
       </c>
       <c r="J45" t="n">
-        <v>612.0357440029542</v>
+        <v>140.1681348405093</v>
       </c>
       <c r="K45" t="n">
-        <v>758.1282462187366</v>
+        <v>286.2606370562917</v>
       </c>
       <c r="L45" t="n">
-        <v>962.095057320132</v>
+        <v>770.2728109625068</v>
       </c>
       <c r="M45" t="n">
-        <v>1203.260196460495</v>
+        <v>1011.43795010287</v>
       </c>
       <c r="N45" t="n">
-        <v>1453.149664023445</v>
+        <v>1261.327417665819</v>
       </c>
       <c r="O45" t="n">
-        <v>1678.138990253577</v>
+        <v>1486.316743895952</v>
       </c>
       <c r="P45" t="n">
-        <v>1855.571136698107</v>
+        <v>1663.748890340481</v>
       </c>
       <c r="Q45" t="n">
-        <v>1966.067958312039</v>
+        <v>1774.245711954414</v>
       </c>
       <c r="R45" t="n">
-        <v>2112.785591996434</v>
+        <v>1815.507845353902</v>
       </c>
       <c r="S45" t="n">
-        <v>2051.209907536604</v>
+        <v>1753.932160894073</v>
       </c>
       <c r="T45" t="n">
-        <v>1913.615433316601</v>
+        <v>1616.33768667407</v>
       </c>
       <c r="U45" t="n">
-        <v>1728.917184920933</v>
+        <v>1431.639438278402</v>
       </c>
       <c r="V45" t="n">
-        <v>1523.9440460602</v>
+        <v>1226.666299417668</v>
       </c>
       <c r="W45" t="n">
-        <v>1327.422668893417</v>
+        <v>1030.144922250886</v>
       </c>
       <c r="X45" t="n">
-        <v>1163.94532266008</v>
+        <v>866.6675760175485</v>
       </c>
       <c r="Y45" t="n">
-        <v>1024.252434013372</v>
+        <v>726.9746873708409</v>
       </c>
     </row>
     <row r="46">
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.851952901692</v>
+        <v>737.2645045040811</v>
       </c>
       <c r="C46" t="n">
-        <v>844.8793897806077</v>
+        <v>565.291941382997</v>
       </c>
       <c r="D46" t="n">
-        <v>681.5626169073784</v>
+        <v>453.2887784859367</v>
       </c>
       <c r="E46" t="n">
-        <v>515.3544110602319</v>
+        <v>287.0805726387903</v>
       </c>
       <c r="F46" t="n">
-        <v>343.4926368347923</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="G46" t="n">
-        <v>178.1270223241554</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="H46" t="n">
-        <v>42.25571183992867</v>
+        <v>115.2187984133507</v>
       </c>
       <c r="I46" t="n">
         <v>42.25571183992867</v>
@@ -7809,49 +7809,49 @@
         <v>83.59006134693919</v>
       </c>
       <c r="K46" t="n">
-        <v>293.218967708527</v>
+        <v>164.3334912372779</v>
       </c>
       <c r="L46" t="n">
-        <v>401.4024511048231</v>
+        <v>381.0718525661459</v>
       </c>
       <c r="M46" t="n">
-        <v>924.3168851239403</v>
+        <v>903.9862865852631</v>
       </c>
       <c r="N46" t="n">
-        <v>1037.462734774884</v>
+        <v>1415.165059078087</v>
       </c>
       <c r="O46" t="n">
-        <v>1516.372687468062</v>
+        <v>1516.372687468061</v>
       </c>
       <c r="P46" t="n">
-        <v>1912.631931977722</v>
+        <v>1912.631931977721</v>
       </c>
       <c r="Q46" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="R46" t="n">
-        <v>2112.785591996434</v>
+        <v>2112.785591996433</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.785591996434</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="T46" t="n">
-        <v>1873.254761874257</v>
+        <v>1958.184434597987</v>
       </c>
       <c r="U46" t="n">
-        <v>1593.118932748841</v>
+        <v>1678.048605472571</v>
       </c>
       <c r="V46" t="n">
-        <v>1593.118932748841</v>
+        <v>1396.3371380806</v>
       </c>
       <c r="W46" t="n">
-        <v>1318.266528921354</v>
+        <v>1396.3371380806</v>
       </c>
       <c r="X46" t="n">
-        <v>1243.19472121195</v>
+        <v>1153.773241526405</v>
       </c>
       <c r="Y46" t="n">
-        <v>1016.851952901692</v>
+        <v>927.4304732161468</v>
       </c>
     </row>
   </sheetData>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>176.3533964847615</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>282.8741038432522</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8850,13 +8850,13 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>214.7727096874899</v>
+        <v>128.0051319919205</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8865,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9005,10 +9005,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>282.8741038432523</v>
       </c>
       <c r="K15" t="n">
-        <v>282.8741038432522</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9090,22 +9090,22 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>380.1908016072373</v>
+        <v>109.6513918510832</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>412.4450992238058</v>
       </c>
       <c r="N16" t="n">
-        <v>315.3441701914651</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O16" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9248,10 +9248,10 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>282.8741038432522</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>282.8741038432523</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9321,22 +9321,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
-        <v>140.5789917787238</v>
+        <v>52.80524296471326</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>412.4450992238055</v>
       </c>
       <c r="N19" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9558,19 +9558,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M22" t="n">
-        <v>412.4450992238055</v>
+        <v>215.4699289420313</v>
       </c>
       <c r="N22" t="n">
-        <v>131.5140476598855</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -9737,10 +9737,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>282.8741038432522</v>
+        <v>176.3533964847614</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9801,22 +9801,22 @@
         <v>249.7804132464869</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>412.4450992238054</v>
       </c>
       <c r="N25" t="n">
-        <v>402.0534574160406</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>272.3160778284019</v>
+        <v>350.5515151721933</v>
       </c>
       <c r="P25" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>282.8741038432523</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -9971,7 +9971,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>282.8741038432522</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10035,22 +10035,22 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K28" t="n">
-        <v>183.8451097598492</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>412.4450992238058</v>
+        <v>412.4450992238054</v>
       </c>
       <c r="N28" t="n">
-        <v>402.0534574160406</v>
+        <v>270.5160127880931</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P28" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>282.8741038432522</v>
+        <v>282.8741038432523</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K31" t="n">
-        <v>141.9056894676506</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>412.4450992238055</v>
       </c>
       <c r="N31" t="n">
         <v>402.0534574160406</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>152.9025226039384</v>
+        <v>118.2429686185396</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10430,16 +10430,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>7.091309443082935</v>
       </c>
       <c r="L33" t="n">
-        <v>7.091309443082821</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>275.7827944001694</v>
+        <v>275.7827944001695</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>140.5789917787229</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>229.2060709302804</v>
       </c>
       <c r="N34" t="n">
         <v>402.0534574160406</v>
@@ -10524,10 +10524,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P34" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>152.9025226039384</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -10679,13 +10679,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>282.8741038432523</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>282.8741038432522</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -10749,10 +10749,10 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>214.7727096874898</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>150.4972662351079</v>
       </c>
       <c r="N37" t="n">
         <v>402.0534574160406</v>
@@ -10761,7 +10761,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P37" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -10916,10 +10916,10 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>282.8741038432519</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>282.8741038432522</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -10980,25 +10980,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>205.7077655686525</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>412.4450992238058</v>
+        <v>412.4450992238055</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>218.8144291225154</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P40" t="n">
-        <v>315.9153581548562</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -11150,7 +11150,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>275.7827944001696</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>282.8741038432522</v>
+        <v>7.091309443082793</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -11220,25 +11220,25 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>249.7804132464869</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>380.1908016072373</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>412.4450992238057</v>
+        <v>412.4450992238056</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O43" t="n">
-        <v>118.9401878730829</v>
+        <v>381.5174992961649</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>152.9025226039384</v>
+        <v>118.2429686185398</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11375,13 +11375,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>176.3533964847614</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>282.8741038432522</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>106.5207073584907</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11457,19 +11457,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>130.1873499709587</v>
+        <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>109.6513918510828</v>
       </c>
       <c r="M46" t="n">
-        <v>412.4450992238058</v>
+        <v>412.4450992238056</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
-        <v>381.5174992961649</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
         <v>315.9153581548562</v>
@@ -22561,7 +22561,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1253022837962369</v>
+        <v>0.125302283796259</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22798,7 +22798,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1253022837962369</v>
+        <v>0.125302283796259</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -23035,7 +23035,7 @@
         <v>20.87293999249374</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1136478495507838</v>
+        <v>0.1136478495507731</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23260,22 +23260,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>44.64650425292677</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>375.2971777470491</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>398.328419516589</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23311,22 +23311,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.7119583655305</v>
+        <v>15.92383761044943</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>16.69603944160705</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>6.890442023638968</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23475,13 +23475,13 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23497,7 +23497,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
         <v>419.0596946068497</v>
@@ -23509,7 +23509,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>348.7740516336337</v>
       </c>
       <c r="Y14" t="n">
-        <v>65.96491080549237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23661,10 +23661,10 @@
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>13.836257414757</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>163.7119583655305</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>6.890442023638968</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>90.72180054386399</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23731,13 +23731,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>122.7358393211911</v>
       </c>
       <c r="C17" t="n">
-        <v>279.0824345436432</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23782,16 +23782,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>210.1046684345147</v>
       </c>
       <c r="U17" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>42.03638502963993</v>
       </c>
       <c r="F19" t="n">
-        <v>144.7489476330829</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>134.5125973793844</v>
       </c>
       <c r="I19" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>6.890442023638975</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>153.055145824462</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>208.3772407411191</v>
       </c>
       <c r="E20" t="n">
         <v>421.717170453621</v>
@@ -23983,7 +23983,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>398.328419516589</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>274.7425724320338</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.49486008622743</v>
       </c>
       <c r="T20" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>255.6139801279633</v>
       </c>
       <c r="V20" t="n">
-        <v>0.8966378383361757</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>162.0359347516992</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>164.546123788675</v>
+        <v>63.19445393466421</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H22" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>6.890442023638975</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.135521820955</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="23">
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>137.0669715013365</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>419.0596946068497</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>398.328419516589</v>
+        <v>256.5091771575289</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>58.49486008622743</v>
       </c>
       <c r="T23" t="n">
         <v>210.1046684345147</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W23" t="n">
         <v>392.4274362026566</v>
@@ -24274,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>160.0075815306648</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>134.5125973793844</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>6.890442023638975</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>131.4273074917907</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24460,7 +24460,7 @@
         <v>398.328419516589</v>
       </c>
       <c r="H26" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,22 +24493,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>58.49486008622742</v>
+        <v>58.49486008622743</v>
       </c>
       <c r="T26" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V26" t="n">
-        <v>353.914520725013</v>
+        <v>50.58698528958757</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>264.9741771475515</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
         <v>401.2838973446586</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F28" t="n">
-        <v>170.1431564831852</v>
+        <v>19.7925649204532</v>
       </c>
       <c r="G28" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>134.5125973793844</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>6.890442023638975</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24663,10 +24663,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
-        <v>154.3008678294665</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C29" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>32.78536590144728</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>58.49486008622743</v>
       </c>
       <c r="T29" t="n">
         <v>210.1046684345147</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>255.6139801279633</v>
       </c>
       <c r="V29" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>299.1657340635362</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
         <v>401.2838973446586</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>25.61717478411234</v>
       </c>
       <c r="G31" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>134.5125973793844</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>6.890442023638975</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>141.8864289889058</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>419.0596946068497</v>
@@ -24928,13 +24928,13 @@
         <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H32" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.49486008622742</v>
+        <v>58.49486008622743</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>79.23505195405639</v>
       </c>
       <c r="V32" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>29.90260241932958</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>160.0075815306656</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>148.0457887337706</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>134.5125973793844</v>
       </c>
       <c r="I34" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>279.5687070133572</v>
       </c>
       <c r="G35" t="n">
         <v>398.328419516589</v>
       </c>
       <c r="H35" t="n">
-        <v>274.7425724320338</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>58.49486008622743</v>
       </c>
       <c r="T35" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>9.753098980337143</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>75.46277012678668</v>
       </c>
       <c r="G37" t="n">
-        <v>112.415229629969</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>72.2334557076878</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>6.890442023638975</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>304.1181243752452</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>66.95439646567399</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.328419516589</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>58.49486008622742</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>210.1046684345147</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
@@ -25459,7 +25459,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25551,7 +25551,7 @@
         <v>188.264309024945</v>
       </c>
       <c r="C40" t="n">
-        <v>2.474983726965121</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25563,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>6.890442023638968</v>
+        <v>6.890442023638975</v>
       </c>
       <c r="S40" t="n">
-        <v>153.055145824462</v>
+        <v>99.67168667241748</v>
       </c>
       <c r="T40" t="n">
-        <v>237.135521820955</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>277.3344708341617</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>420.8729399924937</v>
+        <v>244.0806879355431</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>274.7425724320338</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,19 +25678,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>210.1046684345147</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6139801279633</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W41" t="n">
-        <v>45.79069488602499</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.7119583655305</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>6.890442023638968</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>129.2429728426006</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>22.41629912083692</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>58.49486008622742</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>67.47604673813646</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>104.6230814821894</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>50.80047387640731</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.7119583655305</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>134.5125973793844</v>
       </c>
       <c r="I46" t="n">
-        <v>72.2334557076878</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,22 +26073,22 @@
         <v>6.890442023638968</v>
       </c>
       <c r="S46" t="n">
-        <v>153.055145824462</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.135521820955</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>165.8171679563426</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>339315.547237001</v>
+        <v>339315.5472370009</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>339315.5472370009</v>
+        <v>339315.5472370008</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>339315.5472370009</v>
+        <v>339315.5472370008</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>339315.5472370009</v>
+        <v>339315.5472370008</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>339315.5472370009</v>
+        <v>339315.5472370008</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>339315.5472370009</v>
+        <v>339315.5472370008</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>473360.8875806609</v>
+        <v>473360.887580661</v>
       </c>
       <c r="C2" t="n">
-        <v>473360.8875806607</v>
+        <v>473360.887580661</v>
       </c>
       <c r="D2" t="n">
-        <v>473361.6529273576</v>
+        <v>473361.6529273578</v>
       </c>
       <c r="E2" t="n">
-        <v>279337.0804830988</v>
+        <v>279337.0804830987</v>
       </c>
       <c r="F2" t="n">
         <v>279337.0804830987</v>
       </c>
       <c r="G2" t="n">
-        <v>279337.0804830989</v>
+        <v>279337.0804830985</v>
       </c>
       <c r="H2" t="n">
+        <v>279337.0804830986</v>
+      </c>
+      <c r="I2" t="n">
+        <v>279337.0804830986</v>
+      </c>
+      <c r="J2" t="n">
+        <v>279337.0804830986</v>
+      </c>
+      <c r="K2" t="n">
+        <v>279337.0804830987</v>
+      </c>
+      <c r="L2" t="n">
+        <v>279337.0804830986</v>
+      </c>
+      <c r="M2" t="n">
+        <v>279337.0804830986</v>
+      </c>
+      <c r="N2" t="n">
         <v>279337.0804830985</v>
       </c>
-      <c r="I2" t="n">
-        <v>279337.0804830988</v>
-      </c>
-      <c r="J2" t="n">
-        <v>279337.0804830989</v>
-      </c>
-      <c r="K2" t="n">
-        <v>279337.0804830986</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
         <v>279337.0804830987</v>
-      </c>
-      <c r="M2" t="n">
-        <v>279337.0804830989</v>
-      </c>
-      <c r="N2" t="n">
-        <v>279337.0804830988</v>
-      </c>
-      <c r="O2" t="n">
-        <v>279337.0804830989</v>
       </c>
       <c r="P2" t="n">
         <v>279337.0804830987</v>
@@ -26423,31 +26423,31 @@
         <v>312767.7001099116</v>
       </c>
       <c r="D4" t="n">
-        <v>311834.7298003431</v>
+        <v>311834.7298003432</v>
       </c>
       <c r="E4" t="n">
         <v>26558.35515904954</v>
       </c>
       <c r="F4" t="n">
+        <v>26558.35515904954</v>
+      </c>
+      <c r="G4" t="n">
         <v>26558.35515904953</v>
-      </c>
-      <c r="G4" t="n">
-        <v>26558.35515904954</v>
       </c>
       <c r="H4" t="n">
         <v>26558.35515904953</v>
       </c>
       <c r="I4" t="n">
-        <v>26558.35515904954</v>
+        <v>26558.35515904953</v>
       </c>
       <c r="J4" t="n">
-        <v>26558.35515904954</v>
+        <v>26558.35515904953</v>
       </c>
       <c r="K4" t="n">
         <v>26558.35515904953</v>
       </c>
       <c r="L4" t="n">
-        <v>26558.35515904953</v>
+        <v>26558.35515904954</v>
       </c>
       <c r="M4" t="n">
         <v>26558.35515904954</v>
@@ -26459,7 +26459,7 @@
         <v>26558.35515904954</v>
       </c>
       <c r="P4" t="n">
-        <v>26558.35515904954</v>
+        <v>26558.35515904953</v>
       </c>
     </row>
     <row r="5">
@@ -26481,19 +26481,19 @@
         <v>42782.25824471217</v>
       </c>
       <c r="F5" t="n">
+        <v>42782.25824471217</v>
+      </c>
+      <c r="G5" t="n">
         <v>42782.25824471215</v>
       </c>
-      <c r="G5" t="n">
-        <v>42782.25824471217</v>
-      </c>
       <c r="H5" t="n">
-        <v>42782.25824471215</v>
+        <v>42782.25824471214</v>
       </c>
       <c r="I5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471214</v>
       </c>
       <c r="J5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471214</v>
       </c>
       <c r="K5" t="n">
         <v>42782.25824471215</v>
@@ -26502,16 +26502,16 @@
         <v>42782.25824471215</v>
       </c>
       <c r="M5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471215</v>
       </c>
       <c r="N5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471215</v>
       </c>
       <c r="O5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471215</v>
       </c>
       <c r="P5" t="n">
-        <v>42782.25824471217</v>
+        <v>42782.25824471215</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85204.36219552971</v>
+        <v>85182.68245756459</v>
       </c>
       <c r="C6" t="n">
-        <v>126041.716250256</v>
+        <v>126020.036512291</v>
       </c>
       <c r="D6" t="n">
-        <v>124429.4739365579</v>
+        <v>124407.7965178251</v>
       </c>
       <c r="E6" t="n">
-        <v>-304482.9843910894</v>
+        <v>-305092.6150596535</v>
       </c>
       <c r="F6" t="n">
-        <v>209996.467079337</v>
+        <v>209386.836410773</v>
       </c>
       <c r="G6" t="n">
-        <v>209996.4670793372</v>
+        <v>209386.8364107728</v>
       </c>
       <c r="H6" t="n">
-        <v>209996.4670793368</v>
+        <v>209386.836410773</v>
       </c>
       <c r="I6" t="n">
-        <v>209996.4670793371</v>
+        <v>209386.836410773</v>
       </c>
       <c r="J6" t="n">
-        <v>209996.4670793372</v>
+        <v>209386.8364107729</v>
       </c>
       <c r="K6" t="n">
-        <v>209996.4670793369</v>
+        <v>209386.836410773</v>
       </c>
       <c r="L6" t="n">
-        <v>209996.467079337</v>
+        <v>209386.8364107729</v>
       </c>
       <c r="M6" t="n">
-        <v>78367.81191236738</v>
+        <v>77758.18124380319</v>
       </c>
       <c r="N6" t="n">
-        <v>209996.4670793371</v>
+        <v>209386.8364107728</v>
       </c>
       <c r="O6" t="n">
-        <v>209996.4670793372</v>
+        <v>209386.8364107731</v>
       </c>
       <c r="P6" t="n">
-        <v>209996.467079337</v>
+        <v>209386.8364107731</v>
       </c>
     </row>
   </sheetData>
@@ -26801,19 +26801,19 @@
         <v>528.1963979991084</v>
       </c>
       <c r="F4" t="n">
-        <v>528.1963979991083</v>
+        <v>528.1963979991084</v>
       </c>
       <c r="G4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991082</v>
       </c>
       <c r="H4" t="n">
-        <v>528.1963979991082</v>
+        <v>528.1963979991081</v>
       </c>
       <c r="I4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991081</v>
       </c>
       <c r="J4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991081</v>
       </c>
       <c r="K4" t="n">
         <v>528.1963979991082</v>
@@ -26822,16 +26822,16 @@
         <v>528.1963979991082</v>
       </c>
       <c r="M4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991082</v>
       </c>
       <c r="N4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991082</v>
       </c>
       <c r="O4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991083</v>
       </c>
       <c r="P4" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991083</v>
       </c>
     </row>
   </sheetData>
@@ -27405,13 +27405,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K2" t="n">
-        <v>14.09296117214527</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L2" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M2" t="n">
-        <v>7.515868967310215</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N2" t="n">
         <v>6.880166552921242</v>
@@ -27423,7 +27423,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q2" t="n">
-        <v>17.72668497534604</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R2" t="n">
         <v>24.33067662398352</v>
@@ -27484,7 +27484,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K3" t="n">
-        <v>7.679584047590231</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L3" t="n">
         <v>2.722701059689193</v>
@@ -27496,7 +27496,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.483625009529547</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P3" t="n">
         <v>4.364096701700124</v>
@@ -27575,7 +27575,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O4" t="n">
-        <v>11.69730019489985</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P4" t="n">
         <v>13.13791998612571</v>
@@ -27642,13 +27642,13 @@
         <v>14.96006091008002</v>
       </c>
       <c r="K5" t="n">
-        <v>14.09296117214527</v>
+        <v>14.09296117214526</v>
       </c>
       <c r="L5" t="n">
         <v>11.42645714324615</v>
       </c>
       <c r="M5" t="n">
-        <v>7.515868967310215</v>
+        <v>7.515868967310212</v>
       </c>
       <c r="N5" t="n">
         <v>6.880166552921242</v>
@@ -27660,7 +27660,7 @@
         <v>13.07601436734049</v>
       </c>
       <c r="Q5" t="n">
-        <v>17.72668497534604</v>
+        <v>17.72668497534603</v>
       </c>
       <c r="R5" t="n">
         <v>24.33067662398352</v>
@@ -27721,7 +27721,7 @@
         <v>11.9988978019839</v>
       </c>
       <c r="K6" t="n">
-        <v>7.679584047590231</v>
+        <v>7.679584047590229</v>
       </c>
       <c r="L6" t="n">
         <v>2.722701059689193</v>
@@ -27733,7 +27733,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>1.483625009529547</v>
+        <v>1.483625009529543</v>
       </c>
       <c r="P6" t="n">
         <v>4.364096701700124</v>
@@ -27812,7 +27812,7 @@
         <v>9.054267004656879</v>
       </c>
       <c r="O7" t="n">
-        <v>11.69730019489985</v>
+        <v>11.69730019489984</v>
       </c>
       <c r="P7" t="n">
         <v>13.13791998612571</v>
@@ -27882,16 +27882,16 @@
         <v>12.61047343199521</v>
       </c>
       <c r="L8" t="n">
-        <v>9.587300011056808</v>
+        <v>9.587300011056811</v>
       </c>
       <c r="M8" t="n">
         <v>5.4694522901083</v>
       </c>
       <c r="N8" t="n">
-        <v>4.800636714419433</v>
+        <v>4.80063671441944</v>
       </c>
       <c r="O8" t="n">
-        <v>6.721973758497697</v>
+        <v>6.7219737584977</v>
       </c>
       <c r="P8" t="n">
         <v>11.40009215480153</v>
@@ -27958,7 +27958,7 @@
         <v>11.40976353962329</v>
       </c>
       <c r="K9" t="n">
-        <v>6.672659757291239</v>
+        <v>6.672659757291241</v>
       </c>
       <c r="L9" t="n">
         <v>1.368767089206766</v>
@@ -31047,13 +31047,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I2" t="n">
-        <v>6.568170250898711</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J2" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K2" t="n">
-        <v>21.67163962266407</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L2" t="n">
         <v>26.88558528937678</v>
@@ -31077,7 +31077,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S2" t="n">
-        <v>3.882295041627764</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T2" t="n">
         <v>0.7457924978486244</v>
@@ -31123,7 +31123,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8803723504958667</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I3" t="n">
         <v>3.138475454765011</v>
@@ -31144,7 +31144,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>21.68826471269267</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P3" t="n">
         <v>17.40674450312854</v>
@@ -31159,10 +31159,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T3" t="n">
-        <v>0.3674215213922348</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U3" t="n">
-        <v>0.005997086856238875</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31226,13 +31226,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P4" t="n">
-        <v>9.242880671860769</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q4" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R4" t="n">
-        <v>3.436206238952448</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S4" t="n">
         <v>1.331825184001586</v>
@@ -31284,13 +31284,13 @@
         <v>1.744796669010217</v>
       </c>
       <c r="I5" t="n">
-        <v>6.568170250898711</v>
+        <v>6.568170250898712</v>
       </c>
       <c r="J5" t="n">
         <v>14.4598985755065</v>
       </c>
       <c r="K5" t="n">
-        <v>21.67163962266407</v>
+        <v>21.67163962266408</v>
       </c>
       <c r="L5" t="n">
         <v>26.88558528937678</v>
@@ -31314,7 +31314,7 @@
         <v>10.70197327081295</v>
       </c>
       <c r="S5" t="n">
-        <v>3.882295041627764</v>
+        <v>3.882295041627765</v>
       </c>
       <c r="T5" t="n">
         <v>0.7457924978486244</v>
@@ -31360,7 +31360,7 @@
         <v>0.09115572021483087</v>
       </c>
       <c r="H6" t="n">
-        <v>0.8803723504958667</v>
+        <v>0.8803723504958668</v>
       </c>
       <c r="I6" t="n">
         <v>3.138475454765011</v>
@@ -31381,7 +31381,7 @@
         <v>21.34302821354166</v>
       </c>
       <c r="O6" t="n">
-        <v>21.68826471269267</v>
+        <v>21.68826471269268</v>
       </c>
       <c r="P6" t="n">
         <v>17.40674450312854</v>
@@ -31396,10 +31396,10 @@
         <v>1.693177522411441</v>
       </c>
       <c r="T6" t="n">
-        <v>0.3674215213922348</v>
+        <v>0.3674215213922349</v>
       </c>
       <c r="U6" t="n">
-        <v>0.005997086856238875</v>
+        <v>0.005997086856238876</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31463,13 +31463,13 @@
         <v>10.80188730352461</v>
       </c>
       <c r="P7" t="n">
-        <v>9.242880671860769</v>
+        <v>9.242880671860771</v>
       </c>
       <c r="Q7" t="n">
         <v>6.399291481397293</v>
       </c>
       <c r="R7" t="n">
-        <v>3.436206238952448</v>
+        <v>3.436206238952449</v>
       </c>
       <c r="S7" t="n">
         <v>1.331825184001586</v>
@@ -31524,19 +31524,19 @@
         <v>7.017477827146541</v>
       </c>
       <c r="J8" t="n">
-        <v>15.44905411404653</v>
+        <v>15.44905411404652</v>
       </c>
       <c r="K8" t="n">
         <v>23.15412736281413</v>
       </c>
       <c r="L8" t="n">
-        <v>28.72474242156612</v>
+        <v>28.72474242156611</v>
       </c>
       <c r="M8" t="n">
         <v>31.96181060932351</v>
       </c>
       <c r="N8" t="n">
-        <v>32.47898612002659</v>
+        <v>32.47898612002658</v>
       </c>
       <c r="O8" t="n">
         <v>30.6689855975264</v>
@@ -31554,7 +31554,7 @@
         <v>4.147870461996026</v>
       </c>
       <c r="T8" t="n">
-        <v>0.7968097837580953</v>
+        <v>0.7968097837580952</v>
       </c>
       <c r="U8" t="n">
         <v>0.01456191495160424</v>
@@ -31594,7 +31594,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.09739139227361268</v>
+        <v>0.09739139227361267</v>
       </c>
       <c r="H9" t="n">
         <v>0.9405958148530489</v>
@@ -31633,7 +31633,7 @@
         <v>1.809002395959427</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3925556556993422</v>
+        <v>0.3925556556993421</v>
       </c>
       <c r="U9" t="n">
         <v>0.006407328439053468</v>
@@ -31676,7 +31676,7 @@
         <v>0.08164967169329333</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7259398083276449</v>
+        <v>0.7259398083276448</v>
       </c>
       <c r="I10" t="n">
         <v>2.455428308740131</v>
@@ -31703,10 +31703,10 @@
         <v>9.875156656432491</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.837046599699318</v>
+        <v>6.837046599699317</v>
       </c>
       <c r="R10" t="n">
-        <v>3.671266147227534</v>
+        <v>3.671266147227533</v>
       </c>
       <c r="S10" t="n">
         <v>1.422931096691302</v>
@@ -32226,25 +32226,25 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.967252269856875</v>
+        <v>1.967252269856874</v>
       </c>
       <c r="H17" t="n">
         <v>20.14712230867172</v>
       </c>
       <c r="I17" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365721</v>
       </c>
       <c r="J17" t="n">
-        <v>166.9680773387651</v>
+        <v>166.968077338765</v>
       </c>
       <c r="K17" t="n">
         <v>250.2418659218066</v>
       </c>
       <c r="L17" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754389</v>
       </c>
       <c r="M17" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295061</v>
       </c>
       <c r="N17" t="n">
         <v>351.021740641237</v>
@@ -32262,7 +32262,7 @@
         <v>123.575410396397</v>
       </c>
       <c r="S17" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936357</v>
       </c>
       <c r="T17" t="n">
         <v>8.611646811298472</v>
@@ -32317,10 +32317,10 @@
         <v>99.44504301712745</v>
       </c>
       <c r="K18" t="n">
-        <v>169.9674178896793</v>
+        <v>169.9674178896792</v>
       </c>
       <c r="L18" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348309</v>
       </c>
       <c r="M18" t="n">
         <v>266.6979311591593</v>
@@ -32338,7 +32338,7 @@
         <v>134.3599894141626</v>
       </c>
       <c r="R18" t="n">
-        <v>65.35184201989028</v>
+        <v>65.35184201989027</v>
       </c>
       <c r="S18" t="n">
         <v>19.55107734912652</v>
@@ -32347,7 +32347,7 @@
         <v>4.242606867496406</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814595</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,16 +32384,16 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.8824416431796518</v>
       </c>
       <c r="H19" t="n">
         <v>7.845708427542728</v>
       </c>
       <c r="I19" t="n">
-        <v>26.537426869439</v>
+        <v>26.53742686943899</v>
       </c>
       <c r="J19" t="n">
-        <v>62.38862417280139</v>
+        <v>62.38862417280138</v>
       </c>
       <c r="K19" t="n">
         <v>102.5236745439632</v>
@@ -32700,25 +32700,25 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.967252269856875</v>
+        <v>1.967252269856874</v>
       </c>
       <c r="H23" t="n">
         <v>20.14712230867172</v>
       </c>
       <c r="I23" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365721</v>
       </c>
       <c r="J23" t="n">
-        <v>166.9680773387651</v>
+        <v>166.968077338765</v>
       </c>
       <c r="K23" t="n">
         <v>250.2418659218066</v>
       </c>
       <c r="L23" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754389</v>
       </c>
       <c r="M23" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295061</v>
       </c>
       <c r="N23" t="n">
         <v>351.021740641237</v>
@@ -32736,7 +32736,7 @@
         <v>123.575410396397</v>
       </c>
       <c r="S23" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936357</v>
       </c>
       <c r="T23" t="n">
         <v>8.611646811298472</v>
@@ -32791,10 +32791,10 @@
         <v>99.44504301712745</v>
       </c>
       <c r="K24" t="n">
-        <v>169.9674178896793</v>
+        <v>169.9674178896792</v>
       </c>
       <c r="L24" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348309</v>
       </c>
       <c r="M24" t="n">
         <v>266.6979311591593</v>
@@ -32812,7 +32812,7 @@
         <v>134.3599894141626</v>
       </c>
       <c r="R24" t="n">
-        <v>65.35184201989028</v>
+        <v>65.35184201989027</v>
       </c>
       <c r="S24" t="n">
         <v>19.55107734912652</v>
@@ -32821,7 +32821,7 @@
         <v>4.242606867496406</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814595</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.8824416431796518</v>
       </c>
       <c r="H25" t="n">
         <v>7.845708427542728</v>
       </c>
       <c r="I25" t="n">
-        <v>26.537426869439</v>
+        <v>26.53742686943899</v>
       </c>
       <c r="J25" t="n">
-        <v>62.38862417280139</v>
+        <v>62.38862417280138</v>
       </c>
       <c r="K25" t="n">
         <v>102.5236745439632</v>
@@ -32937,25 +32937,25 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.967252269856875</v>
+        <v>1.967252269856874</v>
       </c>
       <c r="H26" t="n">
         <v>20.14712230867172</v>
       </c>
       <c r="I26" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365721</v>
       </c>
       <c r="J26" t="n">
-        <v>166.9680773387651</v>
+        <v>166.968077338765</v>
       </c>
       <c r="K26" t="n">
         <v>250.2418659218066</v>
       </c>
       <c r="L26" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754389</v>
       </c>
       <c r="M26" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295061</v>
       </c>
       <c r="N26" t="n">
         <v>351.021740641237</v>
@@ -32973,7 +32973,7 @@
         <v>123.575410396397</v>
       </c>
       <c r="S26" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936357</v>
       </c>
       <c r="T26" t="n">
         <v>8.611646811298472</v>
@@ -33028,10 +33028,10 @@
         <v>99.44504301712745</v>
       </c>
       <c r="K27" t="n">
-        <v>169.9674178896793</v>
+        <v>169.9674178896792</v>
       </c>
       <c r="L27" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348309</v>
       </c>
       <c r="M27" t="n">
         <v>266.6979311591593</v>
@@ -33049,7 +33049,7 @@
         <v>134.3599894141626</v>
       </c>
       <c r="R27" t="n">
-        <v>65.35184201989028</v>
+        <v>65.35184201989027</v>
       </c>
       <c r="S27" t="n">
         <v>19.55107734912652</v>
@@ -33058,7 +33058,7 @@
         <v>4.242606867496406</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814595</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.8824416431796518</v>
       </c>
       <c r="H28" t="n">
         <v>7.845708427542728</v>
       </c>
       <c r="I28" t="n">
-        <v>26.537426869439</v>
+        <v>26.53742686943899</v>
       </c>
       <c r="J28" t="n">
-        <v>62.38862417280139</v>
+        <v>62.38862417280138</v>
       </c>
       <c r="K28" t="n">
         <v>102.5236745439632</v>
@@ -33174,25 +33174,25 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.967252269856875</v>
+        <v>1.967252269856874</v>
       </c>
       <c r="H29" t="n">
         <v>20.14712230867172</v>
       </c>
       <c r="I29" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365721</v>
       </c>
       <c r="J29" t="n">
-        <v>166.9680773387651</v>
+        <v>166.968077338765</v>
       </c>
       <c r="K29" t="n">
         <v>250.2418659218066</v>
       </c>
       <c r="L29" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754389</v>
       </c>
       <c r="M29" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295061</v>
       </c>
       <c r="N29" t="n">
         <v>351.021740641237</v>
@@ -33210,7 +33210,7 @@
         <v>123.575410396397</v>
       </c>
       <c r="S29" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936357</v>
       </c>
       <c r="T29" t="n">
         <v>8.611646811298472</v>
@@ -33265,10 +33265,10 @@
         <v>99.44504301712745</v>
       </c>
       <c r="K30" t="n">
-        <v>169.9674178896793</v>
+        <v>169.9674178896792</v>
       </c>
       <c r="L30" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348309</v>
       </c>
       <c r="M30" t="n">
         <v>266.6979311591593</v>
@@ -33286,7 +33286,7 @@
         <v>134.3599894141626</v>
       </c>
       <c r="R30" t="n">
-        <v>65.35184201989028</v>
+        <v>65.35184201989027</v>
       </c>
       <c r="S30" t="n">
         <v>19.55107734912652</v>
@@ -33295,7 +33295,7 @@
         <v>4.242606867496406</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814595</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,16 +33332,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.8824416431796518</v>
       </c>
       <c r="H31" t="n">
         <v>7.845708427542728</v>
       </c>
       <c r="I31" t="n">
-        <v>26.537426869439</v>
+        <v>26.53742686943899</v>
       </c>
       <c r="J31" t="n">
-        <v>62.38862417280139</v>
+        <v>62.38862417280138</v>
       </c>
       <c r="K31" t="n">
         <v>102.5236745439632</v>
@@ -33411,25 +33411,25 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.967252269856875</v>
+        <v>1.967252269856874</v>
       </c>
       <c r="H32" t="n">
         <v>20.14712230867172</v>
       </c>
       <c r="I32" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365721</v>
       </c>
       <c r="J32" t="n">
-        <v>166.9680773387651</v>
+        <v>166.968077338765</v>
       </c>
       <c r="K32" t="n">
         <v>250.2418659218066</v>
       </c>
       <c r="L32" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754389</v>
       </c>
       <c r="M32" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295061</v>
       </c>
       <c r="N32" t="n">
         <v>351.021740641237</v>
@@ -33447,7 +33447,7 @@
         <v>123.575410396397</v>
       </c>
       <c r="S32" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936357</v>
       </c>
       <c r="T32" t="n">
         <v>8.611646811298472</v>
@@ -33502,10 +33502,10 @@
         <v>99.44504301712745</v>
       </c>
       <c r="K33" t="n">
-        <v>169.9674178896793</v>
+        <v>169.9674178896792</v>
       </c>
       <c r="L33" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348309</v>
       </c>
       <c r="M33" t="n">
         <v>266.6979311591593</v>
@@ -33523,7 +33523,7 @@
         <v>134.3599894141626</v>
       </c>
       <c r="R33" t="n">
-        <v>65.35184201989028</v>
+        <v>65.35184201989027</v>
       </c>
       <c r="S33" t="n">
         <v>19.55107734912652</v>
@@ -33532,7 +33532,7 @@
         <v>4.242606867496406</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814595</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,16 +33569,16 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.8824416431796518</v>
       </c>
       <c r="H34" t="n">
         <v>7.845708427542728</v>
       </c>
       <c r="I34" t="n">
-        <v>26.537426869439</v>
+        <v>26.53742686943899</v>
       </c>
       <c r="J34" t="n">
-        <v>62.38862417280139</v>
+        <v>62.38862417280138</v>
       </c>
       <c r="K34" t="n">
         <v>102.5236745439632</v>
@@ -33648,25 +33648,25 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.967252269856875</v>
+        <v>1.967252269856874</v>
       </c>
       <c r="H35" t="n">
         <v>20.14712230867172</v>
       </c>
       <c r="I35" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365721</v>
       </c>
       <c r="J35" t="n">
-        <v>166.9680773387651</v>
+        <v>166.968077338765</v>
       </c>
       <c r="K35" t="n">
         <v>250.2418659218066</v>
       </c>
       <c r="L35" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754389</v>
       </c>
       <c r="M35" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295061</v>
       </c>
       <c r="N35" t="n">
         <v>351.021740641237</v>
@@ -33684,7 +33684,7 @@
         <v>123.575410396397</v>
       </c>
       <c r="S35" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936357</v>
       </c>
       <c r="T35" t="n">
         <v>8.611646811298472</v>
@@ -33739,10 +33739,10 @@
         <v>99.44504301712745</v>
       </c>
       <c r="K36" t="n">
-        <v>169.9674178896793</v>
+        <v>169.9674178896792</v>
       </c>
       <c r="L36" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348309</v>
       </c>
       <c r="M36" t="n">
         <v>266.6979311591593</v>
@@ -33760,7 +33760,7 @@
         <v>134.3599894141626</v>
       </c>
       <c r="R36" t="n">
-        <v>65.35184201989028</v>
+        <v>65.35184201989027</v>
       </c>
       <c r="S36" t="n">
         <v>19.55107734912652</v>
@@ -33769,7 +33769,7 @@
         <v>4.242606867496406</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814595</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,16 +33806,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.8824416431796518</v>
       </c>
       <c r="H37" t="n">
         <v>7.845708427542728</v>
       </c>
       <c r="I37" t="n">
-        <v>26.537426869439</v>
+        <v>26.53742686943899</v>
       </c>
       <c r="J37" t="n">
-        <v>62.38862417280139</v>
+        <v>62.38862417280138</v>
       </c>
       <c r="K37" t="n">
         <v>102.5236745439632</v>
@@ -33885,25 +33885,25 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.967252269856875</v>
+        <v>1.967252269856874</v>
       </c>
       <c r="H38" t="n">
         <v>20.14712230867172</v>
       </c>
       <c r="I38" t="n">
-        <v>75.84249313365723</v>
+        <v>75.84249313365721</v>
       </c>
       <c r="J38" t="n">
-        <v>166.9680773387651</v>
+        <v>166.968077338765</v>
       </c>
       <c r="K38" t="n">
         <v>250.2418659218066</v>
       </c>
       <c r="L38" t="n">
-        <v>310.447162575439</v>
+        <v>310.4471625754389</v>
       </c>
       <c r="M38" t="n">
-        <v>345.4322851295062</v>
+        <v>345.4322851295061</v>
       </c>
       <c r="N38" t="n">
         <v>351.021740641237</v>
@@ -33921,7 +33921,7 @@
         <v>123.575410396397</v>
       </c>
       <c r="S38" t="n">
-        <v>44.82876109936358</v>
+        <v>44.82876109936357</v>
       </c>
       <c r="T38" t="n">
         <v>8.611646811298472</v>
@@ -33976,10 +33976,10 @@
         <v>99.44504301712745</v>
       </c>
       <c r="K39" t="n">
-        <v>169.9674178896793</v>
+        <v>169.9674178896792</v>
       </c>
       <c r="L39" t="n">
-        <v>228.542168634831</v>
+        <v>228.5421686348309</v>
       </c>
       <c r="M39" t="n">
         <v>266.6979311591593</v>
@@ -33997,7 +33997,7 @@
         <v>134.3599894141626</v>
       </c>
       <c r="R39" t="n">
-        <v>65.35184201989028</v>
+        <v>65.35184201989027</v>
       </c>
       <c r="S39" t="n">
         <v>19.55107734912652</v>
@@ -34006,7 +34006,7 @@
         <v>4.242606867496406</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06924820784814596</v>
+        <v>0.06924820784814595</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,16 +34043,16 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8824416431796519</v>
+        <v>0.8824416431796518</v>
       </c>
       <c r="H40" t="n">
         <v>7.845708427542728</v>
       </c>
       <c r="I40" t="n">
-        <v>26.537426869439</v>
+        <v>26.53742686943899</v>
       </c>
       <c r="J40" t="n">
-        <v>62.38862417280139</v>
+        <v>62.38862417280138</v>
       </c>
       <c r="K40" t="n">
         <v>102.5236745439632</v>
@@ -34134,7 +34134,7 @@
         <v>166.9680773387651</v>
       </c>
       <c r="K41" t="n">
-        <v>250.2418659218072</v>
+        <v>250.2418659218066</v>
       </c>
       <c r="L41" t="n">
         <v>310.447162575439</v>
@@ -34392,7 +34392,7 @@
         <v>212.4411135565067</v>
       </c>
       <c r="R44" t="n">
-        <v>123.575410396397</v>
+        <v>123.5754103963969</v>
       </c>
       <c r="S44" t="n">
         <v>44.82876109936358</v>
@@ -35497,7 +35497,7 @@
         <v>206.0270819206014</v>
       </c>
       <c r="M12" t="n">
-        <v>419.9545471315928</v>
+        <v>243.6011506468314</v>
       </c>
       <c r="N12" t="n">
         <v>252.4136035989387</v>
@@ -35506,13 +35506,13 @@
         <v>227.2619456870026</v>
       </c>
       <c r="P12" t="n">
-        <v>179.2243903480099</v>
+        <v>462.098494191262</v>
       </c>
       <c r="Q12" t="n">
         <v>111.6129511251841</v>
       </c>
       <c r="R12" t="n">
-        <v>148.1996299842369</v>
+        <v>41.67892262574614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>120.4606728840721</v>
       </c>
       <c r="K13" t="n">
-        <v>81.55902009125117</v>
+        <v>331.3394333377381</v>
       </c>
       <c r="L13" t="n">
         <v>109.2762458548445</v>
       </c>
       <c r="M13" t="n">
-        <v>330.5240084627926</v>
+        <v>243.7564307672232</v>
       </c>
       <c r="N13" t="n">
         <v>516.3421944371955</v>
@@ -35585,10 +35585,10 @@
         <v>483.7474269628062</v>
       </c>
       <c r="P13" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621428</v>
       </c>
       <c r="Q13" t="n">
-        <v>49.27289155637663</v>
+        <v>202.1754141603151</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35725,10 +35725,10 @@
         <v>20.06750869052971</v>
       </c>
       <c r="J15" t="n">
-        <v>78.83392868379411</v>
+        <v>361.7080325270464</v>
       </c>
       <c r="K15" t="n">
-        <v>430.4422878995982</v>
+        <v>147.5681840563459</v>
       </c>
       <c r="L15" t="n">
         <v>206.0270819206014</v>
@@ -35810,22 +35810,22 @@
         <v>81.55902009125117</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4670474620818</v>
+        <v>218.9276377059277</v>
       </c>
       <c r="M16" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991084</v>
       </c>
       <c r="N16" t="n">
-        <v>429.6329072126201</v>
+        <v>516.3421944371955</v>
       </c>
       <c r="O16" t="n">
-        <v>483.7474269628062</v>
+        <v>102.2299276666413</v>
       </c>
       <c r="P16" t="n">
         <v>400.2618631410705</v>
       </c>
       <c r="Q16" t="n">
-        <v>49.27289155637663</v>
+        <v>202.1754141603151</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,13 +35880,13 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969371</v>
       </c>
       <c r="J17" t="n">
         <v>137.5481178531785</v>
       </c>
       <c r="K17" t="n">
-        <v>214.4772651269973</v>
+        <v>214.4772651269972</v>
       </c>
       <c r="L17" t="n">
         <v>272.135120142816</v>
@@ -35968,10 +35968,10 @@
         <v>147.5681840563459</v>
       </c>
       <c r="L18" t="n">
-        <v>488.9011857638536</v>
+        <v>206.0270819206014</v>
       </c>
       <c r="M18" t="n">
-        <v>243.6011506468314</v>
+        <v>526.4752544900837</v>
       </c>
       <c r="N18" t="n">
         <v>252.4136035989387</v>
@@ -35980,13 +35980,13 @@
         <v>227.2619456870026</v>
       </c>
       <c r="P18" t="n">
-        <v>179.2243903480099</v>
+        <v>179.2243903480098</v>
       </c>
       <c r="Q18" t="n">
         <v>111.6129511251841</v>
       </c>
       <c r="R18" t="n">
-        <v>41.67892262574614</v>
+        <v>41.67892262574613</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,25 +36041,25 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>41.75186818889952</v>
+        <v>120.4606728840721</v>
       </c>
       <c r="K19" t="n">
-        <v>222.138011869975</v>
+        <v>134.3642630559644</v>
       </c>
       <c r="L19" t="n">
-        <v>109.2762458548445</v>
+        <v>489.4670474620818</v>
       </c>
       <c r="M19" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991082</v>
       </c>
       <c r="N19" t="n">
-        <v>516.3421944371955</v>
+        <v>114.288737021155</v>
       </c>
       <c r="O19" t="n">
-        <v>483.7474269628062</v>
+        <v>102.2299276666413</v>
       </c>
       <c r="P19" t="n">
-        <v>400.2618631410705</v>
+        <v>400.2618631410704</v>
       </c>
       <c r="Q19" t="n">
         <v>202.1754141603151</v>
@@ -36278,19 +36278,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>41.75186818889951</v>
+        <v>120.4606728840721</v>
       </c>
       <c r="K22" t="n">
-        <v>81.55902009125116</v>
+        <v>331.3394333377381</v>
       </c>
       <c r="L22" t="n">
         <v>489.4670474620818</v>
       </c>
       <c r="M22" t="n">
-        <v>528.1963979991082</v>
+        <v>331.2212277173339</v>
       </c>
       <c r="N22" t="n">
-        <v>245.8027846810405</v>
+        <v>114.288737021155</v>
       </c>
       <c r="O22" t="n">
         <v>102.2299276666413</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969371</v>
       </c>
       <c r="J23" t="n">
         <v>137.5481178531785</v>
       </c>
       <c r="K23" t="n">
-        <v>214.4772651269973</v>
+        <v>214.4772651269972</v>
       </c>
       <c r="L23" t="n">
         <v>272.135120142816</v>
@@ -36445,7 +36445,7 @@
         <v>206.0270819206014</v>
       </c>
       <c r="M24" t="n">
-        <v>243.6011506468314</v>
+        <v>243.6011506468313</v>
       </c>
       <c r="N24" t="n">
         <v>252.4136035989387</v>
@@ -36454,13 +36454,13 @@
         <v>227.2619456870026</v>
       </c>
       <c r="P24" t="n">
-        <v>179.2243903480099</v>
+        <v>179.2243903480098</v>
       </c>
       <c r="Q24" t="n">
-        <v>394.4870549684363</v>
+        <v>287.9663476099456</v>
       </c>
       <c r="R24" t="n">
-        <v>41.67892262574614</v>
+        <v>148.1996299842368</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>41.75186818889952</v>
+        <v>41.75186818889951</v>
       </c>
       <c r="K25" t="n">
         <v>331.3394333377381</v>
       </c>
       <c r="L25" t="n">
-        <v>109.2762458548445</v>
+        <v>489.4670474620818</v>
       </c>
       <c r="M25" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991081</v>
       </c>
       <c r="N25" t="n">
-        <v>516.3421944371955</v>
+        <v>114.288737021155</v>
       </c>
       <c r="O25" t="n">
-        <v>374.5460054950432</v>
+        <v>452.7814428388346</v>
       </c>
       <c r="P25" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621427</v>
       </c>
       <c r="Q25" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637663</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,13 +36591,13 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969371</v>
       </c>
       <c r="J26" t="n">
-        <v>137.5481178531785</v>
+        <v>137.548117853178</v>
       </c>
       <c r="K26" t="n">
-        <v>214.4772651269973</v>
+        <v>214.4772651269972</v>
       </c>
       <c r="L26" t="n">
         <v>272.135120142816</v>
@@ -36682,7 +36682,7 @@
         <v>206.0270819206014</v>
       </c>
       <c r="M27" t="n">
-        <v>243.6011506468314</v>
+        <v>526.4752544900837</v>
       </c>
       <c r="N27" t="n">
         <v>252.4136035989387</v>
@@ -36691,13 +36691,13 @@
         <v>227.2619456870026</v>
       </c>
       <c r="P27" t="n">
-        <v>462.098494191262</v>
+        <v>179.2243903480098</v>
       </c>
       <c r="Q27" t="n">
         <v>111.6129511251841</v>
       </c>
       <c r="R27" t="n">
-        <v>41.67892262574614</v>
+        <v>41.67892262574613</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36755,22 +36755,22 @@
         <v>120.4606728840721</v>
       </c>
       <c r="K28" t="n">
-        <v>265.4041298511003</v>
+        <v>331.3394333377381</v>
       </c>
       <c r="L28" t="n">
         <v>109.2762458548445</v>
       </c>
       <c r="M28" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991081</v>
       </c>
       <c r="N28" t="n">
-        <v>516.3421944371955</v>
+        <v>384.8047498092481</v>
       </c>
       <c r="O28" t="n">
-        <v>102.2299276666413</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P28" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621427</v>
       </c>
       <c r="Q28" t="n">
         <v>49.27289155637663</v>
@@ -36828,13 +36828,13 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969371</v>
       </c>
       <c r="J29" t="n">
         <v>137.5481178531785</v>
       </c>
       <c r="K29" t="n">
-        <v>214.4772651269973</v>
+        <v>214.4772651269972</v>
       </c>
       <c r="L29" t="n">
         <v>272.135120142816</v>
@@ -36919,7 +36919,7 @@
         <v>206.0270819206014</v>
       </c>
       <c r="M30" t="n">
-        <v>526.4752544900836</v>
+        <v>526.4752544900837</v>
       </c>
       <c r="N30" t="n">
         <v>252.4136035989387</v>
@@ -36928,13 +36928,13 @@
         <v>227.2619456870026</v>
       </c>
       <c r="P30" t="n">
-        <v>179.2243903480099</v>
+        <v>179.2243903480098</v>
       </c>
       <c r="Q30" t="n">
         <v>111.6129511251841</v>
       </c>
       <c r="R30" t="n">
-        <v>41.67892262574614</v>
+        <v>41.67892262574613</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>41.75186818889952</v>
+        <v>120.4606728840721</v>
       </c>
       <c r="K31" t="n">
-        <v>223.4647095589017</v>
+        <v>81.55902009125116</v>
       </c>
       <c r="L31" t="n">
-        <v>489.4670474620818</v>
+        <v>109.2762458548445</v>
       </c>
       <c r="M31" t="n">
-        <v>115.7512987753027</v>
+        <v>528.1963979991082</v>
       </c>
       <c r="N31" t="n">
         <v>516.3421944371955</v>
       </c>
       <c r="O31" t="n">
-        <v>102.2299276666413</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P31" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621427</v>
       </c>
       <c r="Q31" t="n">
-        <v>202.1754141603151</v>
+        <v>167.5158601749162</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37065,13 +37065,13 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969371</v>
       </c>
       <c r="J32" t="n">
         <v>137.5481178531785</v>
       </c>
       <c r="K32" t="n">
-        <v>214.4772651269973</v>
+        <v>214.4772651269972</v>
       </c>
       <c r="L32" t="n">
         <v>272.135120142816</v>
@@ -37086,13 +37086,13 @@
         <v>294.0689165268236</v>
       </c>
       <c r="P32" t="n">
-        <v>245.3179736605243</v>
+        <v>245.3179736605248</v>
       </c>
       <c r="Q32" t="n">
         <v>176.3164389519087</v>
       </c>
       <c r="R32" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160043</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>78.83392868379411</v>
       </c>
       <c r="K33" t="n">
-        <v>147.5681840563459</v>
+        <v>154.6594934994288</v>
       </c>
       <c r="L33" t="n">
-        <v>213.1183913636842</v>
+        <v>206.0270819206014</v>
       </c>
       <c r="M33" t="n">
-        <v>243.6011506468314</v>
+        <v>243.6011506468313</v>
       </c>
       <c r="N33" t="n">
         <v>528.1963979991082</v>
@@ -37165,13 +37165,13 @@
         <v>227.2619456870026</v>
       </c>
       <c r="P33" t="n">
-        <v>179.2243903480099</v>
+        <v>179.2243903480098</v>
       </c>
       <c r="Q33" t="n">
         <v>111.6129511251841</v>
       </c>
       <c r="R33" t="n">
-        <v>41.67892262574614</v>
+        <v>41.67892262574613</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>41.75186818889952</v>
+        <v>41.75186818889951</v>
       </c>
       <c r="K34" t="n">
-        <v>222.1380118699741</v>
+        <v>81.55902009125116</v>
       </c>
       <c r="L34" t="n">
-        <v>109.2762458548445</v>
+        <v>489.4670474620818</v>
       </c>
       <c r="M34" t="n">
-        <v>115.7512987753027</v>
+        <v>344.9573697055831</v>
       </c>
       <c r="N34" t="n">
         <v>516.3421944371955</v>
@@ -37244,10 +37244,10 @@
         <v>483.7474269628062</v>
       </c>
       <c r="P34" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621427</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.1754141603151</v>
+        <v>49.27289155637663</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,13 +37302,13 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969371</v>
       </c>
       <c r="J35" t="n">
         <v>137.5481178531785</v>
       </c>
       <c r="K35" t="n">
-        <v>214.4772651269973</v>
+        <v>214.4772651269972</v>
       </c>
       <c r="L35" t="n">
         <v>272.135120142816</v>
@@ -37393,22 +37393,22 @@
         <v>206.0270819206014</v>
       </c>
       <c r="M36" t="n">
-        <v>243.6011506468314</v>
+        <v>243.6011506468313</v>
       </c>
       <c r="N36" t="n">
         <v>252.4136035989387</v>
       </c>
       <c r="O36" t="n">
-        <v>227.2619456870026</v>
+        <v>510.1360495302549</v>
       </c>
       <c r="P36" t="n">
-        <v>179.2243903480099</v>
+        <v>179.2243903480098</v>
       </c>
       <c r="Q36" t="n">
-        <v>394.4870549684363</v>
+        <v>111.6129511251841</v>
       </c>
       <c r="R36" t="n">
-        <v>41.67892262574614</v>
+        <v>41.67892262574613</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37466,13 +37466,13 @@
         <v>120.4606728840721</v>
       </c>
       <c r="K37" t="n">
-        <v>81.55902009125117</v>
+        <v>81.55902009125116</v>
       </c>
       <c r="L37" t="n">
-        <v>324.0489555423343</v>
+        <v>489.4670474620818</v>
       </c>
       <c r="M37" t="n">
-        <v>115.7512987753027</v>
+        <v>266.2485650104106</v>
       </c>
       <c r="N37" t="n">
         <v>516.3421944371955</v>
@@ -37481,7 +37481,7 @@
         <v>483.7474269628062</v>
       </c>
       <c r="P37" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621427</v>
       </c>
       <c r="Q37" t="n">
         <v>49.27289155637663</v>
@@ -37539,13 +37539,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.29459058969373</v>
+        <v>41.29459058969371</v>
       </c>
       <c r="J38" t="n">
         <v>137.5481178531785</v>
       </c>
       <c r="K38" t="n">
-        <v>214.4772651269973</v>
+        <v>214.4772651269972</v>
       </c>
       <c r="L38" t="n">
         <v>272.135120142816</v>
@@ -37630,22 +37630,22 @@
         <v>206.0270819206014</v>
       </c>
       <c r="M39" t="n">
-        <v>243.6011506468314</v>
+        <v>243.6011506468313</v>
       </c>
       <c r="N39" t="n">
         <v>252.4136035989387</v>
       </c>
       <c r="O39" t="n">
-        <v>510.1360495302545</v>
+        <v>227.2619456870026</v>
       </c>
       <c r="P39" t="n">
-        <v>179.2243903480099</v>
+        <v>462.098494191262</v>
       </c>
       <c r="Q39" t="n">
         <v>111.6129511251841</v>
       </c>
       <c r="R39" t="n">
-        <v>41.67892262574614</v>
+        <v>41.67892262574613</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,25 +37700,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>120.4606728840721</v>
+        <v>41.75186818889951</v>
       </c>
       <c r="K40" t="n">
-        <v>287.2667856599036</v>
+        <v>81.55902009125116</v>
       </c>
       <c r="L40" t="n">
         <v>489.4670474620818</v>
       </c>
       <c r="M40" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991082</v>
       </c>
       <c r="N40" t="n">
-        <v>114.288737021155</v>
+        <v>333.1031661436704</v>
       </c>
       <c r="O40" t="n">
-        <v>102.2299276666413</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P40" t="n">
-        <v>400.2618631410705</v>
+        <v>84.34650498621427</v>
       </c>
       <c r="Q40" t="n">
         <v>49.27289155637663</v>
@@ -37782,7 +37782,7 @@
         <v>137.5481178531785</v>
       </c>
       <c r="K41" t="n">
-        <v>214.4772651269979</v>
+        <v>214.4772651269973</v>
       </c>
       <c r="L41" t="n">
         <v>272.135120142816</v>
@@ -37870,7 +37870,7 @@
         <v>243.6011506468314</v>
       </c>
       <c r="N42" t="n">
-        <v>252.4136035989387</v>
+        <v>528.1963979991083</v>
       </c>
       <c r="O42" t="n">
         <v>227.2619456870026</v>
@@ -37879,7 +37879,7 @@
         <v>179.2243903480099</v>
       </c>
       <c r="Q42" t="n">
-        <v>394.4870549684363</v>
+        <v>118.7042605682669</v>
       </c>
       <c r="R42" t="n">
         <v>41.67892262574614</v>
@@ -37940,25 +37940,25 @@
         <v>120.4606728840721</v>
       </c>
       <c r="K43" t="n">
-        <v>331.3394333377381</v>
+        <v>81.55902009125117</v>
       </c>
       <c r="L43" t="n">
-        <v>489.4670474620818</v>
+        <v>109.2762458548445</v>
       </c>
       <c r="M43" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991083</v>
       </c>
       <c r="N43" t="n">
-        <v>114.288737021155</v>
+        <v>516.3421944371955</v>
       </c>
       <c r="O43" t="n">
-        <v>221.1701155397242</v>
+        <v>483.7474269628062</v>
       </c>
       <c r="P43" t="n">
         <v>84.34650498621428</v>
       </c>
       <c r="Q43" t="n">
-        <v>202.1754141603151</v>
+        <v>167.5158601749164</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>176.3164389519087</v>
       </c>
       <c r="R44" t="n">
-        <v>88.54276050160053</v>
+        <v>88.54276050160043</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>20.06750869052971</v>
       </c>
       <c r="J45" t="n">
-        <v>255.1873251685555</v>
+        <v>78.83392868379411</v>
       </c>
       <c r="K45" t="n">
         <v>147.5681840563459</v>
       </c>
       <c r="L45" t="n">
-        <v>206.0270819206014</v>
+        <v>488.9011857638536</v>
       </c>
       <c r="M45" t="n">
         <v>243.6011506468314</v>
@@ -38119,7 +38119,7 @@
         <v>111.6129511251841</v>
       </c>
       <c r="R45" t="n">
-        <v>148.1996299842369</v>
+        <v>41.67892262574614</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38177,19 +38177,19 @@
         <v>41.75186818889952</v>
       </c>
       <c r="K46" t="n">
-        <v>211.7463700622099</v>
+        <v>81.55902009125117</v>
       </c>
       <c r="L46" t="n">
-        <v>109.2762458548445</v>
+        <v>218.9276377059274</v>
       </c>
       <c r="M46" t="n">
-        <v>528.1963979991084</v>
+        <v>528.1963979991083</v>
       </c>
       <c r="N46" t="n">
-        <v>114.288737021155</v>
+        <v>516.3421944371955</v>
       </c>
       <c r="O46" t="n">
-        <v>483.7474269628062</v>
+        <v>102.2299276666413</v>
       </c>
       <c r="P46" t="n">
         <v>400.2618631410705</v>
